--- a/output_reports/Абатменты_01.01-01.02.xlsx
+++ b/output_reports/Абатменты_01.01-01.02.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Приливаемый" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Прямой, временный" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Прямой, временный" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Приливаемый" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/output_reports/Абатменты_01.01-01.02.xlsx
+++ b/output_reports/Абатменты_01.01-01.02.xlsx
@@ -62,12 +62,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCECFF"/>
+        <fgColor rgb="00CCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
+        <fgColor rgb="00CCECFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -220,7 +220,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -254,11 +254,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -270,21 +273,17 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -655,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V310"/>
+  <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
@@ -929,13 +928,13 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="L7" s="4" t="n">
         <v>0</v>
@@ -950,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="6" t="n"/>
@@ -1105,10 +1104,10 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>0</v>
@@ -1126,20 +1125,18 @@
         <v>54</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>5</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>23</v>
-      </c>
-      <c r="S10" s="5" t="inlineStr">
-        <is>
-          <t>02-04.02</t>
-        </is>
-      </c>
-      <c r="T10" s="6" t="n"/>
+        <v>34</v>
+      </c>
+      <c r="S10" s="5" t="inlineStr"/>
+      <c r="T10" s="6" t="n">
+        <v>815</v>
+      </c>
       <c r="U10" s="6" t="n"/>
       <c r="V10" s="4" t="n"/>
     </row>
@@ -1285,10 +1282,10 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>629</v>
@@ -1306,13 +1303,13 @@
         <v>67</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="6" t="n"/>
@@ -1592,7 +1589,7 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="17" t="inlineStr">
         <is>
           <t>35967 Абатмент временный LM (собств. разр.) Astra Tech 3.5/4.0 D=4.1 G/H=1 с позиционером без внутр. резьбы V.1</t>
         </is>
@@ -1613,19 +1610,19 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>316</v>
+        <v>292</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>119</v>
-      </c>
-      <c r="K18" s="4" t="n">
-        <v>134</v>
+        <v>163</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>104</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="4" t="n">
-        <v>50</v>
+      <c r="M18" s="18" t="n">
+        <v>80</v>
       </c>
       <c r="N18" s="4" t="n">
         <v>0</v>
@@ -1634,13 +1631,13 @@
         <v>76</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>50</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="6" t="n"/>
@@ -1689,19 +1686,19 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M19" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N19" s="4" t="n">
         <v>0</v>
@@ -1789,13 +1786,13 @@
         </is>
       </c>
       <c r="I21" s="4" t="n">
-        <v>1303</v>
+        <v>1208</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>197</v>
+        <v>292</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>851</v>
+        <v>801</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>1</v>
@@ -1807,16 +1804,16 @@
         <v>16</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="S21" s="5" t="inlineStr"/>
       <c r="T21" s="6" t="n"/>
@@ -1891,13 +1888,13 @@
         </is>
       </c>
       <c r="I23" s="4" t="n">
-        <v>789</v>
+        <v>778</v>
       </c>
       <c r="J23" s="4" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K23" s="4" t="n">
-        <v>632</v>
+        <v>582</v>
       </c>
       <c r="L23" s="4" t="n">
         <v>0</v>
@@ -1912,13 +1909,13 @@
         <v>92</v>
       </c>
       <c r="P23" s="4" t="n">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="Q23" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S23" s="5" t="inlineStr"/>
       <c r="T23" s="6" t="n"/>
@@ -2099,7 +2096,9 @@
       <c r="S26" s="5" t="inlineStr"/>
       <c r="T26" s="6" t="n"/>
       <c r="U26" s="6" t="n"/>
-      <c r="V26" s="4" t="n"/>
+      <c r="V26" s="4" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
@@ -2243,13 +2242,13 @@
         </is>
       </c>
       <c r="I29" s="4" t="n">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="J29" s="4" t="n">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="K29" s="4" t="n">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="L29" s="4" t="n">
         <v>1</v>
@@ -2261,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>93</v>
+        <v>53</v>
       </c>
       <c r="P29" s="4" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="S29" s="5" t="inlineStr"/>
       <c r="T29" s="6" t="n"/>
@@ -2519,19 +2518,19 @@
         </is>
       </c>
       <c r="I34" s="11" t="n">
-        <v>470</v>
+        <v>435</v>
       </c>
       <c r="J34" s="12" t="n">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="K34" s="4" t="n">
-        <v>405</v>
+        <v>380</v>
       </c>
       <c r="L34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M34" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N34" s="4" t="n">
         <v>0</v>
@@ -2540,13 +2539,13 @@
         <v>41</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="S34" s="5" t="inlineStr"/>
       <c r="T34" s="6" t="n"/>
@@ -2574,7 +2573,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E35" s="17" t="inlineStr">
+      <c r="E35" s="19" t="inlineStr">
         <is>
           <t>35973 Абатмент временный LM (собств. разр.) Osstem Implant Mini (3.5) D=4 G/H=1 с позиционером без внутр. резьбы V.1</t>
         </is>
@@ -2595,18 +2594,18 @@
         </is>
       </c>
       <c r="I35" s="15" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J35" s="16" t="n">
-        <v>69</v>
-      </c>
-      <c r="K35" s="18" t="n">
+        <v>81</v>
+      </c>
+      <c r="K35" s="20" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="M35" s="18" t="n">
+      <c r="M35" s="20" t="n">
         <v>20</v>
       </c>
       <c r="N35" s="4" t="n">
@@ -2616,20 +2615,18 @@
         <v>177</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>9</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="S35" s="5" t="inlineStr">
-        <is>
-          <t>31.01-02.02</t>
-        </is>
-      </c>
-      <c r="T35" s="6" t="n"/>
+        <v>44</v>
+      </c>
+      <c r="S35" s="5" t="inlineStr"/>
+      <c r="T35" s="6" t="n">
+        <v>545</v>
+      </c>
       <c r="U35" s="6" t="n"/>
       <c r="V35" s="4" t="n">
         <v>2</v>
@@ -2677,19 +2674,19 @@
         </is>
       </c>
       <c r="I36" s="11" t="n">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="J36" s="12" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K36" s="4" t="n">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="L36" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M36" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N36" s="4" t="n">
         <v>0</v>
@@ -2698,13 +2695,13 @@
         <v>187</v>
       </c>
       <c r="P36" s="4" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="Q36" s="4" t="n">
         <v>5</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="S36" s="5" t="inlineStr"/>
       <c r="T36" s="6" t="n"/>
@@ -2755,13 +2752,13 @@
         </is>
       </c>
       <c r="I37" s="15" t="n">
-        <v>1180</v>
+        <v>1077</v>
       </c>
       <c r="J37" s="16" t="n">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="K37" s="4" t="n">
-        <v>982</v>
+        <v>877</v>
       </c>
       <c r="L37" s="4" t="n">
         <v>1</v>
@@ -2773,16 +2770,16 @@
         <v>10</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="Q37" s="4" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="R37" s="4" t="n">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="S37" s="5" t="inlineStr"/>
       <c r="T37" s="6" t="n"/>
@@ -2855,19 +2852,19 @@
         </is>
       </c>
       <c r="I39" s="11" t="n">
-        <v>1025</v>
+        <v>1017</v>
       </c>
       <c r="J39" s="12" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K39" s="4" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="L39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N39" s="4" t="n">
         <v>0</v>
@@ -2876,13 +2873,13 @@
         <v>163</v>
       </c>
       <c r="P39" s="4" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q39" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S39" s="5" t="inlineStr"/>
       <c r="T39" s="6" t="n"/>
@@ -3007,34 +3004,34 @@
         </is>
       </c>
       <c r="I41" s="4" t="n">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S41" s="5" t="inlineStr"/>
       <c r="T41" s="6" t="n"/>
@@ -3107,13 +3104,13 @@
         </is>
       </c>
       <c r="I43" s="4" t="n">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="J43" s="4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K43" s="4" t="n">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="L43" s="4" t="n">
         <v>0</v>
@@ -3128,13 +3125,13 @@
         <v>132</v>
       </c>
       <c r="P43" s="4" t="n">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="Q43" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="4" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="S43" s="5" t="inlineStr"/>
       <c r="T43" s="6" t="n"/>
@@ -3511,7 +3508,7 @@
         </is>
       </c>
       <c r="I49" s="11" t="n">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="J49" s="12" t="n">
         <v>19</v>
@@ -3532,7 +3529,7 @@
         <v>85</v>
       </c>
       <c r="P49" s="4" t="n">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="Q49" s="4" t="n">
         <v>0</v>
@@ -3663,10 +3660,10 @@
         </is>
       </c>
       <c r="I51" s="11" t="n">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J51" s="12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>170</v>
@@ -3684,13 +3681,13 @@
         <v>48</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>3</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S51" s="5" t="inlineStr"/>
       <c r="T51" s="6" t="n"/>
@@ -3839,10 +3836,10 @@
         </is>
       </c>
       <c r="I54" s="4" t="n">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J54" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K54" s="4" t="n">
         <v>18</v>
@@ -3860,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="P54" s="4" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Q54" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R54" s="4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S54" s="5" t="inlineStr"/>
       <c r="T54" s="6" t="n"/>
@@ -3915,10 +3912,10 @@
         </is>
       </c>
       <c r="I55" s="4" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J55" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K55" s="4" t="n">
         <v>262</v>
@@ -3936,13 +3933,13 @@
         <v>0</v>
       </c>
       <c r="P55" s="4" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q55" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R55" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" s="5" t="inlineStr"/>
       <c r="T55" s="6" t="n"/>
@@ -3991,10 +3988,10 @@
         </is>
       </c>
       <c r="I56" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J56" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56" s="4" t="n">
         <v>0</v>
@@ -4012,13 +4009,13 @@
         <v>0</v>
       </c>
       <c r="P56" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q56" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R56" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" s="5" t="inlineStr"/>
       <c r="T56" s="6" t="n"/>
@@ -4547,13 +4544,13 @@
         </is>
       </c>
       <c r="I64" s="4" t="n">
-        <v>513</v>
+        <v>488</v>
       </c>
       <c r="J64" s="4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K64" s="4" t="n">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="L64" s="4" t="n">
         <v>1</v>
@@ -4568,13 +4565,13 @@
         <v>144</v>
       </c>
       <c r="P64" s="4" t="n">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="Q64" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="S64" s="5" t="inlineStr"/>
       <c r="T64" s="6" t="n"/>
@@ -4625,13 +4622,13 @@
         </is>
       </c>
       <c r="I65" s="4" t="n">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
@@ -4646,13 +4643,13 @@
         <v>0</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="Q65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="S65" s="5" t="inlineStr"/>
       <c r="T65" s="6" t="n"/>
@@ -4701,13 +4698,13 @@
         </is>
       </c>
       <c r="I66" s="4" t="n">
-        <v>216</v>
+        <v>340</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
@@ -4716,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O66" s="4" t="n">
         <v>195</v>
@@ -4730,12 +4727,10 @@
       <c r="R66" s="4" t="n">
         <v>49</v>
       </c>
-      <c r="S66" s="5" t="inlineStr">
-        <is>
-          <t>31.01</t>
-        </is>
-      </c>
-      <c r="T66" s="6" t="n"/>
+      <c r="S66" s="5" t="inlineStr"/>
+      <c r="T66" s="6" t="n">
+        <v>428</v>
+      </c>
       <c r="U66" s="6" t="n"/>
       <c r="V66" s="4" t="n"/>
     </row>
@@ -4781,13 +4776,13 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J67" s="4" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="K67" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="L67" s="4" t="n">
         <v>0</v>
@@ -4796,26 +4791,24 @@
         <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O67" s="4" t="n">
         <v>7</v>
       </c>
       <c r="P67" s="4" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q67" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>14</v>
-      </c>
-      <c r="S67" s="5" t="inlineStr">
-        <is>
-          <t>01-03.02</t>
-        </is>
-      </c>
-      <c r="T67" s="6" t="n"/>
+        <v>29</v>
+      </c>
+      <c r="S67" s="5" t="inlineStr"/>
+      <c r="T67" s="6" t="n">
+        <v>549</v>
+      </c>
       <c r="U67" s="6" t="n"/>
       <c r="V67" s="4" t="n"/>
     </row>
@@ -5113,10 +5106,10 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J72" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K72" s="4" t="n">
         <v>0</v>
@@ -5134,13 +5127,13 @@
         <v>1</v>
       </c>
       <c r="P72" s="4" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q72" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S72" s="5" t="inlineStr"/>
       <c r="T72" s="6" t="n"/>
@@ -5517,19 +5510,19 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>169</v>
+        <v>830</v>
       </c>
       <c r="J78" s="4" t="n">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="K78" s="4" t="n">
-        <v>0</v>
+        <v>641</v>
       </c>
       <c r="L78" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M78" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="4" t="n">
         <v>0</v>
@@ -5538,18 +5531,16 @@
         <v>156</v>
       </c>
       <c r="P78" s="4" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q78" s="4" t="n">
         <v>10</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="S78" s="5" t="inlineStr"/>
-      <c r="T78" s="6" t="n">
-        <v>738</v>
-      </c>
+      <c r="T78" s="6" t="n"/>
       <c r="U78" s="6" t="n"/>
       <c r="V78" s="4" t="n">
         <v>13</v>
@@ -5597,13 +5588,13 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J79" s="4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K79" s="4" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L79" s="4" t="n">
         <v>0</v>
@@ -5612,19 +5603,19 @@
         <v>1</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O79" s="4" t="n">
         <v>50</v>
       </c>
       <c r="P79" s="4" t="n">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="Q79" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S79" s="5" t="inlineStr"/>
       <c r="T79" s="6" t="n"/>
@@ -5673,13 +5664,13 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>408</v>
+        <v>382</v>
       </c>
       <c r="J80" s="4" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K80" s="4" t="n">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="L80" s="4" t="n">
         <v>0</v>
@@ -5694,13 +5685,13 @@
         <v>183</v>
       </c>
       <c r="P80" s="4" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="Q80" s="4" t="n">
         <v>20</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="S80" s="5" t="inlineStr"/>
       <c r="T80" s="6" t="n"/>
@@ -5751,13 +5742,13 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="J81" s="4" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K81" s="4" t="n">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="L81" s="4" t="n">
         <v>0</v>
@@ -5769,18 +5760,22 @@
         <v>12</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P81" s="4" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>65</v>
-      </c>
-      <c r="S81" s="5" t="inlineStr"/>
+        <v>76</v>
+      </c>
+      <c r="S81" s="5" t="inlineStr">
+        <is>
+          <t>07-09.02</t>
+        </is>
+      </c>
       <c r="T81" s="6" t="n"/>
       <c r="U81" s="6" t="n"/>
       <c r="V81" s="4" t="n">
@@ -5829,13 +5824,13 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="J82" s="4" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K82" s="4" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="L82" s="4" t="n">
         <v>0</v>
@@ -5844,19 +5839,19 @@
         <v>1</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" s="4" t="n">
         <v>135</v>
       </c>
       <c r="P82" s="4" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q82" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="S82" s="5" t="inlineStr"/>
       <c r="T82" s="6" t="n"/>
@@ -5907,13 +5902,13 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J83" s="4" t="n">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K83" s="4" t="n">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="L83" s="4" t="n">
         <v>0</v>
@@ -5928,15 +5923,19 @@
         <v>50</v>
       </c>
       <c r="P83" s="4" t="n">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="Q83" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R83" s="4" t="n">
-        <v>98</v>
-      </c>
-      <c r="S83" s="5" t="inlineStr"/>
+        <v>109</v>
+      </c>
+      <c r="S83" s="5" t="inlineStr">
+        <is>
+          <t>10-12.02</t>
+        </is>
+      </c>
       <c r="T83" s="6" t="n"/>
       <c r="U83" s="6" t="n"/>
       <c r="V83" s="4" t="n"/>
@@ -5962,7 +5961,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E84" s="19" t="inlineStr">
+      <c r="E84" s="3" t="inlineStr">
         <is>
           <t>35080 Абатмент прямой LM (копия оригинала) Implantium D=5.5 G/H=3.5 с позиционером без внутр. резьбы (арт. DAB5535HL) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -5983,18 +5982,18 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>67</v>
+        <v>709</v>
       </c>
       <c r="J84" s="4" t="n">
-        <v>62</v>
-      </c>
-      <c r="K84" s="18" t="n">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="K84" s="4" t="n">
+        <v>643</v>
       </c>
       <c r="L84" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M84" s="18" t="n">
+      <c r="M84" s="4" t="n">
         <v>1</v>
       </c>
       <c r="N84" s="4" t="n">
@@ -6004,21 +6003,17 @@
         <v>50</v>
       </c>
       <c r="P84" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q84" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R84" s="4" t="n">
-        <v>61</v>
-      </c>
-      <c r="S84" s="5" t="inlineStr">
-        <is>
-          <t>31.01</t>
-        </is>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="S84" s="5" t="inlineStr"/>
       <c r="T84" s="6" t="n">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="U84" s="6" t="n"/>
       <c r="V84" s="4" t="n"/>
@@ -6441,10 +6436,10 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="J92" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="K92" s="4" t="n">
         <v>0</v>
@@ -6462,13 +6457,13 @@
         <v>0</v>
       </c>
       <c r="P92" s="4" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="Q92" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="S92" s="5" t="inlineStr"/>
       <c r="T92" s="6" t="n"/>
@@ -6572,7 +6567,7 @@
           <t>4.5</t>
         </is>
       </c>
-      <c r="E94" s="20" t="inlineStr">
+      <c r="E94" s="21" t="inlineStr">
         <is>
           <t>35371П Абатмент прямой LM (копия оригинала) Niko 4.5 D=5.5 G/H=4 с позиционером без внутр. резьбы (арт. 2.706) ПОЛИР. V.1.P / БЕЗ ВИНТА</t>
         </is>
@@ -6595,7 +6590,7 @@
       <c r="I94" s="4" t="n">
         <v>47</v>
       </c>
-      <c r="J94" s="21" t="n">
+      <c r="J94" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K94" s="4" t="n">
@@ -6669,10 +6664,10 @@
         </is>
       </c>
       <c r="I95" s="15" t="n">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="J95" s="16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K95" s="4" t="n">
         <v>1055</v>
@@ -6690,13 +6685,13 @@
         <v>0</v>
       </c>
       <c r="P95" s="4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q95" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R95" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S95" s="5" t="inlineStr"/>
       <c r="T95" s="6" t="n"/>
@@ -6769,13 +6764,13 @@
         </is>
       </c>
       <c r="I97" s="11" t="n">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="J97" s="12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K97" s="4" t="n">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="L97" s="4" t="n">
         <v>2</v>
@@ -6784,13 +6779,13 @@
         <v>0</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O97" s="4" t="n">
         <v>95</v>
       </c>
       <c r="P97" s="4" t="n">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="Q97" s="4" t="n">
         <v>10</v>
@@ -6826,7 +6821,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E98" s="20" t="inlineStr">
+      <c r="E98" s="21" t="inlineStr">
         <is>
           <t>35004 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621WH) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -6847,19 +6842,19 @@
         </is>
       </c>
       <c r="I98" s="4" t="n">
-        <v>613</v>
-      </c>
-      <c r="J98" s="21" t="n">
-        <v>23</v>
+        <v>608</v>
+      </c>
+      <c r="J98" s="22" t="n">
+        <v>28</v>
       </c>
       <c r="K98" s="4" t="n">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L98" s="4" t="n">
         <v>6</v>
       </c>
       <c r="M98" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N98" s="4" t="n">
         <v>5</v>
@@ -6904,7 +6899,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E99" s="20" t="inlineStr">
+      <c r="E99" s="21" t="inlineStr">
         <is>
           <t>35004П Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTA4621) ПОЛИР. V.1.P / БЕЗ</t>
         </is>
@@ -6927,7 +6922,7 @@
       <c r="I99" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="J99" s="21" t="n">
+      <c r="J99" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K99" s="4" t="n">
@@ -6980,7 +6975,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E100" s="20" t="inlineStr">
+      <c r="E100" s="21" t="inlineStr">
         <is>
           <t>35005 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -7001,10 +6996,10 @@
         </is>
       </c>
       <c r="I100" s="4" t="n">
-        <v>45</v>
-      </c>
-      <c r="J100" s="21" t="n">
-        <v>6</v>
+        <v>43</v>
+      </c>
+      <c r="J100" s="22" t="n">
+        <v>8</v>
       </c>
       <c r="K100" s="4" t="n">
         <v>0</v>
@@ -7022,20 +7017,18 @@
         <v>30</v>
       </c>
       <c r="P100" s="4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q100" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S100" s="5" t="inlineStr">
-        <is>
-          <t>01-03.02</t>
-        </is>
-      </c>
-      <c r="T100" s="6" t="n"/>
+        <v>4</v>
+      </c>
+      <c r="S100" s="5" t="inlineStr"/>
+      <c r="T100" s="6" t="n">
+        <v>816</v>
+      </c>
       <c r="U100" s="6" t="n"/>
       <c r="V100" s="4" t="n">
         <v>11</v>
@@ -7062,7 +7055,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E101" s="22" t="inlineStr">
+      <c r="E101" s="23" t="inlineStr">
         <is>
           <t>35005П Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTA4631) ПОЛИР. V.1.P / БЕЗ</t>
         </is>
@@ -7082,11 +7075,11 @@
           <t>Версия 1.P</t>
         </is>
       </c>
-      <c r="I101" s="23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" s="24" t="n">
-        <v>5</v>
+      <c r="I101" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" s="25" t="n">
+        <v>6</v>
       </c>
       <c r="K101" s="4" t="n">
         <v>0</v>
@@ -7104,13 +7097,13 @@
         <v>0</v>
       </c>
       <c r="P101" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R101" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S101" s="5" t="inlineStr"/>
       <c r="T101" s="6" t="n"/>
@@ -7138,7 +7131,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E102" s="20" t="inlineStr">
+      <c r="E102" s="21" t="inlineStr">
         <is>
           <t>35115 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.6 G/H=4 с позиционером без внутр. резьбы (арт. GSTA4641WH) V.1</t>
         </is>
@@ -7159,13 +7152,13 @@
         </is>
       </c>
       <c r="I102" s="4" t="n">
-        <v>656</v>
-      </c>
-      <c r="J102" s="21" t="n">
-        <v>14</v>
+        <v>635</v>
+      </c>
+      <c r="J102" s="22" t="n">
+        <v>15</v>
       </c>
       <c r="K102" s="4" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="L102" s="4" t="n">
         <v>11</v>
@@ -7180,13 +7173,13 @@
         <v>79</v>
       </c>
       <c r="P102" s="4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q102" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S102" s="5" t="inlineStr"/>
       <c r="T102" s="6" t="n"/>
@@ -7216,7 +7209,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E103" s="20" t="inlineStr">
+      <c r="E103" s="21" t="inlineStr">
         <is>
           <t>35116 Абатмент прямой LM (копия оригинала) Osstem Implant Mini (3.5) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTA4651WH) V.1</t>
         </is>
@@ -7237,10 +7230,10 @@
         </is>
       </c>
       <c r="I103" s="4" t="n">
-        <v>493</v>
-      </c>
-      <c r="J103" s="21" t="n">
-        <v>10</v>
+        <v>492</v>
+      </c>
+      <c r="J103" s="22" t="n">
+        <v>11</v>
       </c>
       <c r="K103" s="4" t="n">
         <v>362</v>
@@ -7258,13 +7251,13 @@
         <v>70</v>
       </c>
       <c r="P103" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q103" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R103" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S103" s="5" t="inlineStr"/>
       <c r="T103" s="6" t="n"/>
@@ -7313,10 +7306,10 @@
         </is>
       </c>
       <c r="I104" s="15" t="n">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J104" s="16" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K104" s="4" t="n">
         <v>668</v>
@@ -7334,13 +7327,13 @@
         <v>50</v>
       </c>
       <c r="P104" s="4" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q104" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R104" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S104" s="5" t="inlineStr"/>
       <c r="T104" s="6" t="n"/>
@@ -7368,7 +7361,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E105" s="25" t="inlineStr">
+      <c r="E105" s="9" t="inlineStr">
         <is>
           <t>35020 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) V.1 / БЕ</t>
         </is>
@@ -7388,14 +7381,14 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I105" s="26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J105" s="27" t="n">
-        <v>74</v>
+      <c r="I105" s="11" t="n">
+        <v>271</v>
+      </c>
+      <c r="J105" s="12" t="n">
+        <v>79</v>
       </c>
       <c r="K105" s="4" t="n">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="L105" s="4" t="n">
         <v>0</v>
@@ -7410,20 +7403,18 @@
         <v>0</v>
       </c>
       <c r="P105" s="4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q105" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R105" s="4" t="n">
-        <v>38</v>
-      </c>
-      <c r="S105" s="5" t="inlineStr">
-        <is>
-          <t>31.01-01.02</t>
-        </is>
-      </c>
-      <c r="T105" s="6" t="n"/>
+        <v>43</v>
+      </c>
+      <c r="S105" s="5" t="inlineStr"/>
+      <c r="T105" s="6" t="n">
+        <v>629</v>
+      </c>
       <c r="U105" s="6" t="n"/>
       <c r="V105" s="4" t="n"/>
     </row>
@@ -7448,7 +7439,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E106" s="20" t="inlineStr">
+      <c r="E106" s="21" t="inlineStr">
         <is>
           <t>35020П Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=2 с позиционером без внутр. резьбы (арт. GSTAS4621) ПОЛИР.</t>
         </is>
@@ -7471,7 +7462,7 @@
       <c r="I106" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J106" s="21" t="n">
+      <c r="J106" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K106" s="4" t="n">
@@ -7524,7 +7515,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E107" s="20" t="inlineStr">
+      <c r="E107" s="21" t="inlineStr">
         <is>
           <t>35021 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=3 с позиционером без внутр. резьбы (арт. GSTAS4631) V.1 / БЕ</t>
         </is>
@@ -7545,13 +7536,13 @@
         </is>
       </c>
       <c r="I107" s="4" t="n">
-        <v>188</v>
-      </c>
-      <c r="J107" s="21" t="n">
-        <v>43</v>
+        <v>151</v>
+      </c>
+      <c r="J107" s="22" t="n">
+        <v>50</v>
       </c>
       <c r="K107" s="4" t="n">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="L107" s="4" t="n">
         <v>0</v>
@@ -7560,19 +7551,19 @@
         <v>10</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="O107" s="4" t="n">
         <v>50</v>
       </c>
       <c r="P107" s="4" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q107" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R107" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S107" s="5" t="inlineStr"/>
       <c r="T107" s="6" t="n"/>
@@ -7600,7 +7591,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E108" s="28" t="inlineStr">
+      <c r="E108" s="21" t="inlineStr">
         <is>
           <t>35022 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5620WH) V.1</t>
         </is>
@@ -7621,18 +7612,18 @@
         </is>
       </c>
       <c r="I108" s="4" t="n">
-        <v>89</v>
-      </c>
-      <c r="J108" s="21" t="n">
-        <v>39</v>
-      </c>
-      <c r="K108" s="29" t="n">
-        <v>18</v>
+        <v>1203</v>
+      </c>
+      <c r="J108" s="22" t="n">
+        <v>51</v>
+      </c>
+      <c r="K108" s="4" t="n">
+        <v>1144</v>
       </c>
       <c r="L108" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M108" s="29" t="n">
+      <c r="M108" s="4" t="n">
         <v>11</v>
       </c>
       <c r="N108" s="4" t="n">
@@ -7642,21 +7633,17 @@
         <v>34</v>
       </c>
       <c r="P108" s="4" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Q108" s="4" t="n">
         <v>3</v>
       </c>
       <c r="R108" s="4" t="n">
-        <v>25</v>
-      </c>
-      <c r="S108" s="5" t="inlineStr">
-        <is>
-          <t>31.01</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="S108" s="5" t="inlineStr"/>
       <c r="T108" s="6" t="n">
-        <v>334</v>
+        <v>15</v>
       </c>
       <c r="U108" s="6" t="n"/>
       <c r="V108" s="4" t="n">
@@ -7684,7 +7671,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E109" s="20" t="inlineStr">
+      <c r="E109" s="21" t="inlineStr">
         <is>
           <t>35023 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=3 H=5.5 с позиционером без внутр. резьбы (арт. GSTA5630WH) V.1</t>
         </is>
@@ -7705,13 +7692,13 @@
         </is>
       </c>
       <c r="I109" s="4" t="n">
-        <v>192</v>
-      </c>
-      <c r="J109" s="21" t="n">
-        <v>40</v>
+        <v>176</v>
+      </c>
+      <c r="J109" s="22" t="n">
+        <v>41</v>
       </c>
       <c r="K109" s="4" t="n">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L109" s="4" t="n">
         <v>0</v>
@@ -7726,13 +7713,13 @@
         <v>17</v>
       </c>
       <c r="P109" s="4" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q109" s="4" t="n">
         <v>20</v>
       </c>
       <c r="R109" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S109" s="5" t="inlineStr"/>
       <c r="T109" s="6" t="n"/>
@@ -7760,7 +7747,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E110" s="30" t="inlineStr">
+      <c r="E110" s="26" t="inlineStr">
         <is>
           <t>35041 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 с позиционером без внутр. резьбы (арт. GSTAS4611W) V.1 / Б</t>
         </is>
@@ -7781,37 +7768,39 @@
         </is>
       </c>
       <c r="I110" s="4" t="n">
-        <v>260</v>
-      </c>
-      <c r="J110" s="21" t="n">
-        <v>179</v>
+        <v>285</v>
+      </c>
+      <c r="J110" s="22" t="n">
+        <v>154</v>
       </c>
       <c r="K110" s="18" t="n">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="L110" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M110" s="18" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O110" s="4" t="n">
         <v>154</v>
       </c>
       <c r="P110" s="4" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q110" s="4" t="n">
         <v>46</v>
       </c>
       <c r="R110" s="4" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="S110" s="5" t="inlineStr"/>
-      <c r="T110" s="6" t="n"/>
+      <c r="T110" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="U110" s="6" t="n"/>
       <c r="V110" s="4" t="n">
         <v>7</v>
@@ -7838,7 +7827,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E111" s="20" t="inlineStr">
+      <c r="E111" s="21" t="inlineStr">
         <is>
           <t>35132 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=4 с позиционером без внутр. резьбы (арт. GSTAS4641WH) V.1</t>
         </is>
@@ -7859,13 +7848,13 @@
         </is>
       </c>
       <c r="I111" s="4" t="n">
-        <v>471</v>
-      </c>
-      <c r="J111" s="21" t="n">
-        <v>44</v>
+        <v>466</v>
+      </c>
+      <c r="J111" s="22" t="n">
+        <v>49</v>
       </c>
       <c r="K111" s="4" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L111" s="4" t="n">
         <v>2</v>
@@ -7874,7 +7863,7 @@
         <v>20</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O111" s="4" t="n">
         <v>139</v>
@@ -7914,7 +7903,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E112" s="20" t="inlineStr">
+      <c r="E112" s="21" t="inlineStr">
         <is>
           <t>35133 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.6 G/H=5 с позиционером без внутр. резьбы (арт. GSTAS4651WH) V.1</t>
         </is>
@@ -7935,10 +7924,10 @@
         </is>
       </c>
       <c r="I112" s="4" t="n">
-        <v>464</v>
-      </c>
-      <c r="J112" s="21" t="n">
-        <v>120</v>
+        <v>463</v>
+      </c>
+      <c r="J112" s="22" t="n">
+        <v>121</v>
       </c>
       <c r="K112" s="4" t="n">
         <v>273</v>
@@ -7956,13 +7945,13 @@
         <v>89</v>
       </c>
       <c r="P112" s="4" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Q112" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R112" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S112" s="5" t="inlineStr"/>
       <c r="T112" s="6" t="n"/>
@@ -7990,7 +7979,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E113" s="20" t="inlineStr">
+      <c r="E113" s="21" t="inlineStr">
         <is>
           <t>35150 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 H=4 с позиционером без внутр. резьбы (арт. GSTA5420WH) V.1</t>
         </is>
@@ -8013,7 +8002,7 @@
       <c r="I113" s="4" t="n">
         <v>328</v>
       </c>
-      <c r="J113" s="21" t="n">
+      <c r="J113" s="22" t="n">
         <v>4</v>
       </c>
       <c r="K113" s="4" t="n">
@@ -8066,7 +8055,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E114" s="20" t="inlineStr">
+      <c r="E114" s="21" t="inlineStr">
         <is>
           <t>35151 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=3 H=4 с позиционером без внутр. резьбы (арт. GSTA5430WH) V.1</t>
         </is>
@@ -8087,10 +8076,10 @@
         </is>
       </c>
       <c r="I114" s="4" t="n">
-        <v>544</v>
-      </c>
-      <c r="J114" s="21" t="n">
-        <v>0</v>
+        <v>548</v>
+      </c>
+      <c r="J114" s="22" t="n">
+        <v>2</v>
       </c>
       <c r="K114" s="4" t="n">
         <v>394</v>
@@ -8108,13 +8097,13 @@
         <v>50</v>
       </c>
       <c r="P114" s="4" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="Q114" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R114" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S114" s="5" t="inlineStr"/>
       <c r="T114" s="6" t="n"/>
@@ -8142,7 +8131,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E115" s="20" t="inlineStr">
+      <c r="E115" s="21" t="inlineStr">
         <is>
           <t>35154 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=1 с позиционером без внутр. резьбы (арт. GSTA5610WH) V.1</t>
         </is>
@@ -8163,13 +8152,13 @@
         </is>
       </c>
       <c r="I115" s="4" t="n">
-        <v>210</v>
-      </c>
-      <c r="J115" s="21" t="n">
-        <v>15</v>
+        <v>214</v>
+      </c>
+      <c r="J115" s="22" t="n">
+        <v>16</v>
       </c>
       <c r="K115" s="4" t="n">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="L115" s="4" t="n">
         <v>0</v>
@@ -8184,13 +8173,13 @@
         <v>50</v>
       </c>
       <c r="P115" s="4" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="Q115" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R115" s="4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S115" s="5" t="inlineStr"/>
       <c r="T115" s="6" t="n"/>
@@ -8218,7 +8207,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E116" s="22" t="inlineStr">
+      <c r="E116" s="23" t="inlineStr">
         <is>
           <t>36051 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1 без позиционера без внутр. резьбы (арт. GSTAS4611NWH) V.1</t>
         </is>
@@ -8238,11 +8227,11 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I116" s="23" t="n">
-        <v>41</v>
-      </c>
-      <c r="J116" s="24" t="n">
-        <v>112</v>
+      <c r="I116" s="24" t="n">
+        <v>26</v>
+      </c>
+      <c r="J116" s="25" t="n">
+        <v>127</v>
       </c>
       <c r="K116" s="4" t="n">
         <v>0</v>
@@ -8260,19 +8249,15 @@
         <v>3</v>
       </c>
       <c r="P116" s="4" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="Q116" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R116" s="4" t="n">
-        <v>12</v>
-      </c>
-      <c r="S116" s="5" t="inlineStr">
-        <is>
-          <t>02-04.02</t>
-        </is>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="S116" s="5" t="inlineStr"/>
       <c r="T116" s="6" t="n"/>
       <c r="U116" s="6" t="n"/>
       <c r="V116" s="4" t="n"/>
@@ -8298,7 +8283,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E117" s="20" t="inlineStr">
+      <c r="E117" s="21" t="inlineStr">
         <is>
           <t>36052 Абатмент прямой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=3 без позиционера без внутр. резьбы (арт. GSTA5630N) V.1 / БЕЗ</t>
         </is>
@@ -8319,10 +8304,10 @@
         </is>
       </c>
       <c r="I117" s="4" t="n">
-        <v>302</v>
-      </c>
-      <c r="J117" s="21" t="n">
-        <v>35</v>
+        <v>301</v>
+      </c>
+      <c r="J117" s="22" t="n">
+        <v>36</v>
       </c>
       <c r="K117" s="4" t="n">
         <v>191</v>
@@ -8340,13 +8325,13 @@
         <v>50</v>
       </c>
       <c r="P117" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q117" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R117" s="4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S117" s="5" t="inlineStr"/>
       <c r="T117" s="6" t="n"/>
@@ -8647,7 +8632,7 @@
         </is>
       </c>
       <c r="I122" s="4" t="n">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="J122" s="4" t="n">
         <v>10</v>
@@ -8668,7 +8653,7 @@
         <v>40</v>
       </c>
       <c r="P122" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q122" s="4" t="n">
         <v>0</v>
@@ -8899,10 +8884,10 @@
         </is>
       </c>
       <c r="I126" s="4" t="n">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J126" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" s="4" t="n">
         <v>598</v>
@@ -8920,13 +8905,13 @@
         <v>88</v>
       </c>
       <c r="P126" s="4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q126" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R126" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S126" s="5" t="inlineStr"/>
       <c r="T126" s="6" t="n"/>
@@ -9054,7 +9039,7 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E129" s="20" t="inlineStr">
+      <c r="E129" s="21" t="inlineStr">
         <is>
           <t>44046 Абатмент прямой MU LM (собств. разр.) Astra Tech 3.5/4.0 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -9077,7 +9062,7 @@
       <c r="I129" s="4" t="n">
         <v>965</v>
       </c>
-      <c r="J129" s="21" t="n">
+      <c r="J129" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K129" s="4" t="n">
@@ -9151,10 +9136,10 @@
         </is>
       </c>
       <c r="I130" s="15" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="J130" s="16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" s="4" t="n">
         <v>845</v>
@@ -9169,13 +9154,13 @@
         <v>0</v>
       </c>
       <c r="O130" s="4" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P130" s="4" t="n">
         <v>25</v>
       </c>
       <c r="Q130" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" s="4" t="n">
         <v>0</v>
@@ -9282,7 +9267,7 @@
           <t>4.5/5.0</t>
         </is>
       </c>
-      <c r="E132" s="20" t="inlineStr">
+      <c r="E132" s="21" t="inlineStr">
         <is>
           <t>44053 Абатмент прямой MU LM (собств. разр.) Astra Tech 4.5/5.0 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -9305,7 +9290,7 @@
       <c r="I132" s="4" t="n">
         <v>906</v>
       </c>
-      <c r="J132" s="21" t="n">
+      <c r="J132" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K132" s="4" t="n">
@@ -9883,10 +9868,10 @@
         </is>
       </c>
       <c r="I141" s="4" t="n">
-        <v>723</v>
+        <v>735</v>
       </c>
       <c r="J141" s="4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K141" s="4" t="n">
         <v>605</v>
@@ -9898,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="N141" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O141" s="4" t="n">
         <v>104</v>
       </c>
       <c r="P141" s="4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q141" s="4" t="n">
         <v>1</v>
@@ -10035,7 +10020,7 @@
         </is>
       </c>
       <c r="I143" s="4" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J143" s="4" t="n">
         <v>0</v>
@@ -10056,7 +10041,7 @@
         <v>76</v>
       </c>
       <c r="P143" s="4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q143" s="4" t="n">
         <v>0</v>
@@ -10213,10 +10198,10 @@
         </is>
       </c>
       <c r="I146" s="4" t="n">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="J146" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K146" s="4" t="n">
         <v>437</v>
@@ -10231,13 +10216,13 @@
         <v>0</v>
       </c>
       <c r="O146" s="4" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="P146" s="4" t="n">
         <v>20</v>
       </c>
       <c r="Q146" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R146" s="4" t="n">
         <v>0</v>
@@ -10444,7 +10429,7 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E150" s="20" t="inlineStr">
+      <c r="E150" s="21" t="inlineStr">
         <is>
           <t>44005 Абатмент прямой MU LM (собств. разр.) Nobel Active NP (3.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -10467,7 +10452,7 @@
       <c r="I150" s="4" t="n">
         <v>1025</v>
       </c>
-      <c r="J150" s="21" t="n">
+      <c r="J150" s="22" t="n">
         <v>29</v>
       </c>
       <c r="K150" s="4" t="n">
@@ -10617,19 +10602,19 @@
         </is>
       </c>
       <c r="I152" s="11" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J152" s="12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K152" s="4" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L152" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N152" s="4" t="n">
         <v>0</v>
@@ -10649,7 +10634,9 @@
       <c r="S152" s="5" t="inlineStr"/>
       <c r="T152" s="6" t="n"/>
       <c r="U152" s="6" t="n"/>
-      <c r="V152" s="4" t="n"/>
+      <c r="V152" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="inlineStr">
@@ -10672,7 +10659,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E153" s="20" t="inlineStr">
+      <c r="E153" s="21" t="inlineStr">
         <is>
           <t>35386 Абатмент прямой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -10693,10 +10680,10 @@
         </is>
       </c>
       <c r="I153" s="4" t="n">
-        <v>2436</v>
-      </c>
-      <c r="J153" s="21" t="n">
-        <v>86</v>
+        <v>2434</v>
+      </c>
+      <c r="J153" s="22" t="n">
+        <v>88</v>
       </c>
       <c r="K153" s="4" t="n">
         <v>2331</v>
@@ -10708,13 +10695,13 @@
         <v>50</v>
       </c>
       <c r="N153" s="4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O153" s="4" t="n">
         <v>84</v>
       </c>
       <c r="P153" s="4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q153" s="4" t="n">
         <v>0</v>
@@ -10924,7 +10911,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E157" s="20" t="inlineStr">
+      <c r="E157" s="21" t="inlineStr">
         <is>
           <t>35227 Абатмент прямой MU LM (собств. разр.) Nobel Replace Select 3.5 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -10947,7 +10934,7 @@
       <c r="I157" s="4" t="n">
         <v>294</v>
       </c>
-      <c r="J157" s="21" t="n">
+      <c r="J157" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K157" s="4" t="n">
@@ -11152,7 +11139,7 @@
           <t>4.3</t>
         </is>
       </c>
-      <c r="E160" s="20" t="inlineStr">
+      <c r="E160" s="21" t="inlineStr">
         <is>
           <t>44021 Абатмент прямой MU LM (собств. разр.) Nobel Replace Select 4.3 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -11173,10 +11160,10 @@
         </is>
       </c>
       <c r="I160" s="4" t="n">
-        <v>898</v>
-      </c>
-      <c r="J160" s="21" t="n">
-        <v>0</v>
+        <v>896</v>
+      </c>
+      <c r="J160" s="22" t="n">
+        <v>2</v>
       </c>
       <c r="K160" s="4" t="n">
         <v>788</v>
@@ -11188,13 +11175,13 @@
         <v>0</v>
       </c>
       <c r="N160" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O160" s="4" t="n">
         <v>80</v>
       </c>
       <c r="P160" s="4" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q160" s="4" t="n">
         <v>0</v>
@@ -11380,7 +11367,7 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="E163" s="20" t="inlineStr">
+      <c r="E163" s="21" t="inlineStr">
         <is>
           <t>44024 Абатмент прямой MU LM (собств. разр.) Nobel Replace Select 5.0 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -11403,7 +11390,7 @@
       <c r="I163" s="4" t="n">
         <v>538</v>
       </c>
-      <c r="J163" s="21" t="n">
+      <c r="J163" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K163" s="4" t="n">
@@ -11577,13 +11564,13 @@
         </is>
       </c>
       <c r="I166" s="11" t="n">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="J166" s="12" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="K166" s="4" t="n">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="L166" s="4" t="n">
         <v>3</v>
@@ -11595,16 +11582,16 @@
         <v>20</v>
       </c>
       <c r="O166" s="4" t="n">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="P166" s="4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q166" s="4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R166" s="4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S166" s="5" t="inlineStr"/>
       <c r="T166" s="6" t="n"/>
@@ -11634,7 +11621,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E167" s="20" t="inlineStr">
+      <c r="E167" s="21" t="inlineStr">
         <is>
           <t>36089 Абатмент прямой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -11655,13 +11642,13 @@
         </is>
       </c>
       <c r="I167" s="4" t="n">
-        <v>1042</v>
-      </c>
-      <c r="J167" s="21" t="n">
-        <v>58</v>
+        <v>1025</v>
+      </c>
+      <c r="J167" s="22" t="n">
+        <v>85</v>
       </c>
       <c r="K167" s="4" t="n">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="L167" s="4" t="n">
         <v>0</v>
@@ -11673,21 +11660,23 @@
         <v>29</v>
       </c>
       <c r="O167" s="4" t="n">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="P167" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q167" s="4" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="R167" s="4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S167" s="5" t="inlineStr"/>
       <c r="T167" s="6" t="n"/>
       <c r="U167" s="6" t="n"/>
-      <c r="V167" s="4" t="n"/>
+      <c r="V167" s="4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
@@ -11731,10 +11720,10 @@
         </is>
       </c>
       <c r="I168" s="15" t="n">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="J168" s="16" t="n">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="K168" s="4" t="n">
         <v>135</v>
@@ -11749,16 +11738,16 @@
         <v>25</v>
       </c>
       <c r="O168" s="4" t="n">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="P168" s="4" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q168" s="4" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="R168" s="4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="S168" s="5" t="inlineStr"/>
       <c r="T168" s="6" t="n"/>
@@ -11807,13 +11796,13 @@
         </is>
       </c>
       <c r="I169" s="11" t="n">
-        <v>1400</v>
+        <v>1296</v>
       </c>
       <c r="J169" s="12" t="n">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="K169" s="4" t="n">
-        <v>1248</v>
+        <v>1087</v>
       </c>
       <c r="L169" s="4" t="n">
         <v>0</v>
@@ -11822,25 +11811,25 @@
         <v>8</v>
       </c>
       <c r="N169" s="4" t="n">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="O169" s="4" t="n">
-        <v>137</v>
+        <v>198</v>
       </c>
       <c r="P169" s="4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q169" s="4" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="R169" s="4" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="S169" s="5" t="inlineStr"/>
       <c r="T169" s="6" t="n"/>
       <c r="U169" s="6" t="n"/>
       <c r="V169" s="4" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="170">
@@ -11864,7 +11853,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E170" s="20" t="inlineStr">
+      <c r="E170" s="21" t="inlineStr">
         <is>
           <t>36092 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=2 V.1 / БЕЗ МАН</t>
         </is>
@@ -11885,42 +11874,42 @@
         </is>
       </c>
       <c r="I170" s="4" t="n">
-        <v>1001</v>
-      </c>
-      <c r="J170" s="21" t="n">
-        <v>242</v>
+        <v>1915</v>
+      </c>
+      <c r="J170" s="22" t="n">
+        <v>391</v>
       </c>
       <c r="K170" s="4" t="n">
-        <v>847</v>
+        <v>1695</v>
       </c>
       <c r="L170" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M170" s="4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="N170" s="4" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="O170" s="4" t="n">
-        <v>149</v>
+        <v>219</v>
       </c>
       <c r="P170" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q170" s="4" t="n">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="R170" s="4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="S170" s="5" t="inlineStr"/>
       <c r="T170" s="6" t="n">
-        <v>1759</v>
+        <v>74</v>
       </c>
       <c r="U170" s="6" t="n"/>
       <c r="V170" s="4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171">
@@ -11944,7 +11933,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E171" s="20" t="inlineStr">
+      <c r="E171" s="21" t="inlineStr">
         <is>
           <t>36093 Абатмент прямой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0), Implantium, MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3 V.1 / БЕЗ МАН</t>
         </is>
@@ -11965,40 +11954,40 @@
         </is>
       </c>
       <c r="I171" s="4" t="n">
-        <v>1163</v>
-      </c>
-      <c r="J171" s="21" t="n">
-        <v>168</v>
+        <v>1063</v>
+      </c>
+      <c r="J171" s="22" t="n">
+        <v>268</v>
       </c>
       <c r="K171" s="4" t="n">
-        <v>938</v>
+        <v>798</v>
       </c>
       <c r="L171" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M171" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="N171" s="4" t="n">
+        <v>70</v>
+      </c>
+      <c r="O171" s="4" t="n">
+        <v>245</v>
+      </c>
+      <c r="P171" s="4" t="n">
         <v>20</v>
       </c>
-      <c r="N171" s="4" t="n">
-        <v>22</v>
-      </c>
-      <c r="O171" s="4" t="n">
-        <v>216</v>
-      </c>
-      <c r="P171" s="4" t="n">
-        <v>9</v>
-      </c>
       <c r="Q171" s="4" t="n">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="R171" s="4" t="n">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="S171" s="5" t="inlineStr"/>
       <c r="T171" s="6" t="n"/>
       <c r="U171" s="6" t="n"/>
       <c r="V171" s="4" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="172">
@@ -12022,7 +12011,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E172" s="20" t="inlineStr">
+      <c r="E172" s="21" t="inlineStr">
         <is>
           <t>35070 Абатмент прямой MU LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2 (арт. TSMA5020) V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -12043,10 +12032,10 @@
         </is>
       </c>
       <c r="I172" s="4" t="n">
-        <v>32</v>
-      </c>
-      <c r="J172" s="21" t="n">
-        <v>6</v>
+        <v>29</v>
+      </c>
+      <c r="J172" s="22" t="n">
+        <v>9</v>
       </c>
       <c r="K172" s="4" t="n">
         <v>5</v>
@@ -12064,13 +12053,13 @@
         <v>0</v>
       </c>
       <c r="P172" s="4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q172" s="4" t="n">
         <v>6</v>
       </c>
       <c r="R172" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S172" s="5" t="inlineStr"/>
       <c r="T172" s="6" t="n"/>
@@ -12274,7 +12263,7 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E176" s="20" t="inlineStr">
+      <c r="E176" s="21" t="inlineStr">
         <is>
           <t>44061 Абатмент прямой MU LM (собств. разр.) Straumann Bone Level NC (3.3) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -12295,9 +12284,9 @@
         </is>
       </c>
       <c r="I176" s="4" t="n">
-        <v>498</v>
-      </c>
-      <c r="J176" s="21" t="n">
+        <v>518</v>
+      </c>
+      <c r="J176" s="22" t="n">
         <v>28</v>
       </c>
       <c r="K176" s="4" t="n">
@@ -12316,7 +12305,7 @@
         <v>88</v>
       </c>
       <c r="P176" s="4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q176" s="4" t="n">
         <v>0</v>
@@ -12371,7 +12360,7 @@
         </is>
       </c>
       <c r="I177" s="15" t="n">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="J177" s="16" t="n">
         <v>8</v>
@@ -12392,7 +12381,7 @@
         <v>90</v>
       </c>
       <c r="P177" s="4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="Q177" s="4" t="n">
         <v>0</v>
@@ -12502,7 +12491,7 @@
           <t>RC</t>
         </is>
       </c>
-      <c r="E179" s="20" t="inlineStr">
+      <c r="E179" s="21" t="inlineStr">
         <is>
           <t>44064 Абатмент прямой MU LM (собств. разр.) Straumann Bone Level RC ( 4.1/4.8) D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -12525,7 +12514,7 @@
       <c r="I179" s="4" t="n">
         <v>1033</v>
       </c>
-      <c r="J179" s="21" t="n">
+      <c r="J179" s="22" t="n">
         <v>17</v>
       </c>
       <c r="K179" s="4" t="n">
@@ -12599,7 +12588,7 @@
         </is>
       </c>
       <c r="I180" s="15" t="n">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="J180" s="16" t="n">
         <v>2</v>
@@ -12620,7 +12609,7 @@
         <v>86</v>
       </c>
       <c r="P180" s="4" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="Q180" s="4" t="n">
         <v>0</v>
@@ -13006,7 +12995,7 @@
           <t>3.8</t>
         </is>
       </c>
-      <c r="E187" s="20" t="inlineStr">
+      <c r="E187" s="21" t="inlineStr">
         <is>
           <t>44079 Абатмент прямой MU LM (собств. разр.) Xive 3.8 D=4.8 G/H=2 V.1 / БЕЗ МАНЖЕТЫ</t>
         </is>
@@ -13029,7 +13018,7 @@
       <c r="I187" s="4" t="n">
         <v>652</v>
       </c>
-      <c r="J187" s="21" t="n">
+      <c r="J187" s="22" t="n">
         <v>4</v>
       </c>
       <c r="K187" s="4" t="n">
@@ -13279,13 +13268,13 @@
         </is>
       </c>
       <c r="I191" s="4" t="n">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="J191" s="4" t="n">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="K191" s="4" t="n">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="L191" s="4" t="n">
         <v>0</v>
@@ -13300,13 +13289,13 @@
         <v>0</v>
       </c>
       <c r="P191" s="4" t="n">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="Q191" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R191" s="4" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="S191" s="5" t="inlineStr"/>
       <c r="T191" s="6" t="n"/>
@@ -13355,13 +13344,13 @@
         </is>
       </c>
       <c r="I192" s="4" t="n">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="J192" s="4" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K192" s="4" t="n">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="L192" s="4" t="n">
         <v>0</v>
@@ -13376,13 +13365,13 @@
         <v>0</v>
       </c>
       <c r="P192" s="4" t="n">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="Q192" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R192" s="4" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="S192" s="5" t="inlineStr"/>
       <c r="T192" s="6" t="n"/>
@@ -13434,7 +13423,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E194" s="31" t="inlineStr">
+      <c r="E194" s="27" t="inlineStr">
         <is>
           <t>35801 Абатмент угловой LM (копия оригинала) Implantium D=4.5 G/H=2 Угол=15 с позиционером без внутр. резьбы (арт. AAB154520HL) V.1</t>
         </is>
@@ -13454,10 +13443,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I194" s="23" t="n">
+      <c r="I194" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="J194" s="23" t="n">
+      <c r="J194" s="24" t="n">
         <v>7</v>
       </c>
       <c r="K194" s="4" t="n">
@@ -13531,10 +13520,10 @@
         </is>
       </c>
       <c r="I195" s="4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J195" s="4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K195" s="4" t="n">
         <v>0</v>
@@ -13546,13 +13535,13 @@
         <v>0</v>
       </c>
       <c r="N195" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O195" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P195" s="4" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="Q195" s="4" t="n">
         <v>0</v>
@@ -13631,10 +13620,10 @@
         </is>
       </c>
       <c r="I197" s="4" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J197" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K197" s="4" t="n">
         <v>46</v>
@@ -13652,13 +13641,13 @@
         <v>20</v>
       </c>
       <c r="P197" s="4" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q197" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R197" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S197" s="5" t="inlineStr"/>
       <c r="T197" s="6" t="n"/>
@@ -13707,10 +13696,10 @@
         </is>
       </c>
       <c r="I198" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J198" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K198" s="4" t="n">
         <v>0</v>
@@ -13728,13 +13717,13 @@
         <v>0</v>
       </c>
       <c r="P198" s="4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q198" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R198" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S198" s="5" t="inlineStr"/>
       <c r="T198" s="6" t="n"/>
@@ -13959,10 +13948,10 @@
         </is>
       </c>
       <c r="I202" s="4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J202" s="4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K202" s="4" t="n">
         <v>0</v>
@@ -13974,13 +13963,13 @@
         <v>0</v>
       </c>
       <c r="N202" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O202" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P202" s="4" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q202" s="4" t="n">
         <v>0</v>
@@ -14014,7 +14003,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E203" s="3" t="inlineStr">
+      <c r="E203" s="27" t="inlineStr">
         <is>
           <t>35813 Абатмент угловой LM (копия оригинала) MegaGen AnyRidge D=4 G/H=3 Угол=15 с позиционером с внутр. резьбой (арт. AANAAH4315L) V.1</t>
         </is>
@@ -14034,11 +14023,11 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I203" s="4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J203" s="4" t="n">
-        <v>14</v>
+      <c r="I203" s="24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J203" s="24" t="n">
+        <v>17</v>
       </c>
       <c r="K203" s="4" t="n">
         <v>0</v>
@@ -14050,13 +14039,13 @@
         <v>0</v>
       </c>
       <c r="N203" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O203" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P203" s="4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="Q203" s="4" t="n">
         <v>0</v>
@@ -14387,19 +14376,19 @@
         </is>
       </c>
       <c r="I209" s="11" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="J209" s="12" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="K209" s="4" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="L209" s="4" t="n">
         <v>1</v>
       </c>
       <c r="M209" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N209" s="4" t="n">
         <v>5</v>
@@ -14408,13 +14397,13 @@
         <v>21</v>
       </c>
       <c r="P209" s="4" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q209" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R209" s="4" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="S209" s="5" t="inlineStr"/>
       <c r="T209" s="6" t="n"/>
@@ -14442,7 +14431,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E210" s="20" t="inlineStr">
+      <c r="E210" s="21" t="inlineStr">
         <is>
           <t>35047 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=4 Угол=17 с позиционером без внутр. резьбы (арт. GSAA4540A)</t>
         </is>
@@ -14463,10 +14452,10 @@
         </is>
       </c>
       <c r="I210" s="4" t="n">
-        <v>234</v>
-      </c>
-      <c r="J210" s="21" t="n">
-        <v>11</v>
+        <v>227</v>
+      </c>
+      <c r="J210" s="22" t="n">
+        <v>18</v>
       </c>
       <c r="K210" s="4" t="n">
         <v>119</v>
@@ -14484,13 +14473,13 @@
         <v>20</v>
       </c>
       <c r="P210" s="4" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="Q210" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R210" s="4" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="S210" s="5" t="inlineStr"/>
       <c r="T210" s="6" t="n"/>
@@ -14518,7 +14507,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E211" s="20" t="inlineStr">
+      <c r="E211" s="21" t="inlineStr">
         <is>
           <t>35350 Абатмент угловой LM (копия оригинала) Osstem Implant Regular (4.0/4.5/5.0) D=5 G/H=2 Угол=17 с позиционером без внутр. резьбы (арт. GSAA5020AWH</t>
         </is>
@@ -14541,7 +14530,7 @@
       <c r="I211" s="4" t="n">
         <v>42</v>
       </c>
-      <c r="J211" s="21" t="n">
+      <c r="J211" s="22" t="n">
         <v>5</v>
       </c>
       <c r="K211" s="4" t="n">
@@ -14617,10 +14606,10 @@
         </is>
       </c>
       <c r="I212" s="15" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J212" s="16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K212" s="4" t="n">
         <v>93</v>
@@ -14638,13 +14627,13 @@
         <v>20</v>
       </c>
       <c r="P212" s="4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q212" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R212" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S212" s="5" t="inlineStr"/>
       <c r="T212" s="6" t="n"/>
@@ -14717,13 +14706,13 @@
         </is>
       </c>
       <c r="I214" s="4" t="n">
-        <v>520</v>
+        <v>482</v>
       </c>
       <c r="J214" s="4" t="n">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="K214" s="4" t="n">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="L214" s="4" t="n">
         <v>0</v>
@@ -14735,22 +14724,22 @@
         <v>18</v>
       </c>
       <c r="O214" s="4" t="n">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="P214" s="4" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q214" s="4" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="R214" s="4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S214" s="5" t="inlineStr"/>
       <c r="T214" s="6" t="n"/>
       <c r="U214" s="6" t="n"/>
       <c r="V214" s="4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215">
@@ -14795,13 +14784,13 @@
         </is>
       </c>
       <c r="I215" s="4" t="n">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="J215" s="4" t="n">
         <v>61</v>
       </c>
       <c r="K215" s="4" t="n">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="L215" s="4" t="n">
         <v>0</v>
@@ -14828,7 +14817,7 @@
       <c r="T215" s="6" t="n"/>
       <c r="U215" s="6" t="n"/>
       <c r="V215" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -14873,13 +14862,13 @@
         </is>
       </c>
       <c r="I216" s="4" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="J216" s="4" t="n">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="K216" s="4" t="n">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="L216" s="4" t="n">
         <v>0</v>
@@ -14888,19 +14877,19 @@
         <v>106</v>
       </c>
       <c r="N216" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O216" s="4" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P216" s="4" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="Q216" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R216" s="4" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S216" s="5" t="inlineStr"/>
       <c r="T216" s="6" t="n"/>
@@ -14951,13 +14940,13 @@
         </is>
       </c>
       <c r="I217" s="4" t="n">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="J217" s="4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K217" s="4" t="n">
-        <v>464</v>
+        <v>421</v>
       </c>
       <c r="L217" s="4" t="n">
         <v>0</v>
@@ -14966,13 +14955,13 @@
         <v>0</v>
       </c>
       <c r="N217" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O217" s="4" t="n">
         <v>180</v>
       </c>
       <c r="P217" s="4" t="n">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="Q217" s="4" t="n">
         <v>8</v>
@@ -15051,19 +15040,19 @@
         </is>
       </c>
       <c r="I219" s="4" t="n">
-        <v>1055</v>
+        <v>1021</v>
       </c>
       <c r="J219" s="4" t="n">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="K219" s="4" t="n">
-        <v>1007</v>
+        <v>955</v>
       </c>
       <c r="L219" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M219" s="4" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N219" s="4" t="n">
         <v>17</v>
@@ -15072,13 +15061,13 @@
         <v>18</v>
       </c>
       <c r="P219" s="4" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q219" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R219" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S219" s="5" t="inlineStr"/>
       <c r="T219" s="6" t="n"/>
@@ -15127,19 +15116,19 @@
         </is>
       </c>
       <c r="I220" s="4" t="n">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="J220" s="4" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="K220" s="4" t="n">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L220" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M220" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N220" s="4" t="n">
         <v>18</v>
@@ -15148,7 +15137,7 @@
         <v>19</v>
       </c>
       <c r="P220" s="4" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="Q220" s="4" t="n">
         <v>0</v>
@@ -15182,7 +15171,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E221" s="31" t="inlineStr">
+      <c r="E221" s="27" t="inlineStr">
         <is>
           <t>44009 Абатмент угловой MU LM (собств. разр.) MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -15202,20 +15191,20 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I221" s="23" t="n">
-        <v>81</v>
-      </c>
-      <c r="J221" s="23" t="n">
-        <v>86</v>
+      <c r="I221" s="24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J221" s="24" t="n">
+        <v>169</v>
       </c>
       <c r="K221" s="4" t="n">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="L221" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M221" s="4" t="n">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="N221" s="4" t="n">
         <v>6</v>
@@ -15224,13 +15213,13 @@
         <v>50</v>
       </c>
       <c r="P221" s="4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q221" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R221" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S221" s="5" t="inlineStr"/>
       <c r="T221" s="6" t="n"/>
@@ -15279,19 +15268,19 @@
         </is>
       </c>
       <c r="I222" s="4" t="n">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="J222" s="4" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="K222" s="4" t="n">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="L222" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M222" s="4" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N222" s="4" t="n">
         <v>0</v>
@@ -15379,7 +15368,7 @@
         </is>
       </c>
       <c r="I224" s="4" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="J224" s="4" t="n">
         <v>15</v>
@@ -15400,7 +15389,7 @@
         <v>15</v>
       </c>
       <c r="P224" s="4" t="n">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q224" s="4" t="n">
         <v>0</v>
@@ -15764,7 +15753,7 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E230" s="20" t="inlineStr">
+      <c r="E230" s="21" t="inlineStr">
         <is>
           <t>44001 Абатмент угловой MU LM (собств. разр.) Nobel Active NP (3.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -15787,7 +15776,7 @@
       <c r="I230" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="J230" s="21" t="n">
+      <c r="J230" s="22" t="n">
         <v>27</v>
       </c>
       <c r="K230" s="4" t="n">
@@ -15840,7 +15829,7 @@
           <t>NP</t>
         </is>
       </c>
-      <c r="E231" s="20" t="inlineStr">
+      <c r="E231" s="26" t="inlineStr">
         <is>
           <t>44002 Абатмент угловой MU LM (собств. разр.) Nobel Active NP (3.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -15861,19 +15850,19 @@
         </is>
       </c>
       <c r="I231" s="4" t="n">
-        <v>208</v>
-      </c>
-      <c r="J231" s="21" t="n">
-        <v>59</v>
-      </c>
-      <c r="K231" s="4" t="n">
-        <v>86</v>
+        <v>206</v>
+      </c>
+      <c r="J231" s="22" t="n">
+        <v>61</v>
+      </c>
+      <c r="K231" s="18" t="n">
+        <v>84</v>
       </c>
       <c r="L231" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="M231" s="4" t="n">
-        <v>34</v>
+      <c r="M231" s="18" t="n">
+        <v>36</v>
       </c>
       <c r="N231" s="4" t="n">
         <v>20</v>
@@ -15937,7 +15926,7 @@
         </is>
       </c>
       <c r="I232" s="15" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="J232" s="16" t="n">
         <v>25</v>
@@ -15955,7 +15944,7 @@
         <v>20</v>
       </c>
       <c r="O232" s="4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P232" s="4" t="n">
         <v>55</v>
@@ -16045,7 +16034,9 @@
       <c r="S233" s="5" t="inlineStr"/>
       <c r="T233" s="6" t="n"/>
       <c r="U233" s="6" t="n"/>
-      <c r="V233" s="4" t="n"/>
+      <c r="V233" s="4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
@@ -16068,7 +16059,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E234" s="20" t="inlineStr">
+      <c r="E234" s="21" t="inlineStr">
         <is>
           <t>35382 Абатмент угловой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16091,7 +16082,7 @@
       <c r="I234" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="J234" s="21" t="n">
+      <c r="J234" s="22" t="n">
         <v>37</v>
       </c>
       <c r="K234" s="4" t="n">
@@ -16144,7 +16135,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E235" s="20" t="inlineStr">
+      <c r="E235" s="21" t="inlineStr">
         <is>
           <t>35383 Абатмент угловой MU LM (собств. разр.) Nobel Active RP (4.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16165,9 +16156,9 @@
         </is>
       </c>
       <c r="I235" s="4" t="n">
-        <v>283</v>
-      </c>
-      <c r="J235" s="21" t="n">
+        <v>303</v>
+      </c>
+      <c r="J235" s="22" t="n">
         <v>41</v>
       </c>
       <c r="K235" s="4" t="n">
@@ -16186,7 +16177,7 @@
         <v>53</v>
       </c>
       <c r="P235" s="4" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="Q235" s="4" t="n">
         <v>0</v>
@@ -16341,19 +16332,19 @@
         </is>
       </c>
       <c r="I238" s="11" t="n">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J238" s="12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K238" s="4" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L238" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M238" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N238" s="4" t="n">
         <v>0</v>
@@ -16396,7 +16387,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E239" s="20" t="inlineStr">
+      <c r="E239" s="21" t="inlineStr">
         <is>
           <t>44013 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 3.5 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16419,7 +16410,7 @@
       <c r="I239" s="4" t="n">
         <v>133</v>
       </c>
-      <c r="J239" s="21" t="n">
+      <c r="J239" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K239" s="4" t="n">
@@ -16472,7 +16463,7 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="E240" s="20" t="inlineStr">
+      <c r="E240" s="21" t="inlineStr">
         <is>
           <t>44014 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 3.5 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16493,19 +16484,19 @@
         </is>
       </c>
       <c r="I240" s="4" t="n">
-        <v>319</v>
-      </c>
-      <c r="J240" s="21" t="n">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="J240" s="22" t="n">
+        <v>2</v>
       </c>
       <c r="K240" s="4" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L240" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M240" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N240" s="4" t="n">
         <v>0</v>
@@ -16514,13 +16505,13 @@
         <v>46</v>
       </c>
       <c r="P240" s="4" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q240" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R240" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S240" s="5" t="inlineStr"/>
       <c r="T240" s="6" t="n"/>
@@ -16569,7 +16560,7 @@
         </is>
       </c>
       <c r="I241" s="15" t="n">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="J241" s="16" t="n">
         <v>0</v>
@@ -16590,7 +16581,7 @@
         <v>20</v>
       </c>
       <c r="P241" s="4" t="n">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="Q241" s="4" t="n">
         <v>0</v>
@@ -16700,7 +16691,7 @@
           <t>4.3</t>
         </is>
       </c>
-      <c r="E243" s="20" t="inlineStr">
+      <c r="E243" s="21" t="inlineStr">
         <is>
           <t>44017 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 4.3 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16723,7 +16714,7 @@
       <c r="I243" s="4" t="n">
         <v>249</v>
       </c>
-      <c r="J243" s="21" t="n">
+      <c r="J243" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K243" s="4" t="n">
@@ -16776,7 +16767,7 @@
           <t>4.3</t>
         </is>
       </c>
-      <c r="E244" s="20" t="inlineStr">
+      <c r="E244" s="21" t="inlineStr">
         <is>
           <t>44018 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 4.3 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -16799,7 +16790,7 @@
       <c r="I244" s="4" t="n">
         <v>300</v>
       </c>
-      <c r="J244" s="21" t="n">
+      <c r="J244" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K244" s="4" t="n">
@@ -17004,7 +16995,7 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="E247" s="20" t="inlineStr">
+      <c r="E247" s="21" t="inlineStr">
         <is>
           <t>44027 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17027,7 +17018,7 @@
       <c r="I247" s="4" t="n">
         <v>252</v>
       </c>
-      <c r="J247" s="21" t="n">
+      <c r="J247" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K247" s="4" t="n">
@@ -17080,7 +17071,7 @@
           <t>5.0</t>
         </is>
       </c>
-      <c r="E248" s="20" t="inlineStr">
+      <c r="E248" s="21" t="inlineStr">
         <is>
           <t>44028 Абатмент угловой MU LM (собств. разр.) Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17103,7 +17094,7 @@
       <c r="I248" s="4" t="n">
         <v>266</v>
       </c>
-      <c r="J248" s="21" t="n">
+      <c r="J248" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K248" s="4" t="n">
@@ -17277,13 +17268,13 @@
         </is>
       </c>
       <c r="I251" s="11" t="n">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J251" s="12" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="K251" s="4" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="L251" s="4" t="n">
         <v>1</v>
@@ -17295,16 +17286,16 @@
         <v>17</v>
       </c>
       <c r="O251" s="4" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P251" s="4" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q251" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R251" s="4" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="S251" s="5" t="inlineStr"/>
       <c r="T251" s="6" t="n"/>
@@ -17334,7 +17325,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E252" s="20" t="inlineStr">
+      <c r="E252" s="21" t="inlineStr">
         <is>
           <t>36081 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17355,13 +17346,13 @@
         </is>
       </c>
       <c r="I252" s="4" t="n">
-        <v>252</v>
-      </c>
-      <c r="J252" s="21" t="n">
-        <v>34</v>
+        <v>197</v>
+      </c>
+      <c r="J252" s="22" t="n">
+        <v>39</v>
       </c>
       <c r="K252" s="4" t="n">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="L252" s="4" t="n">
         <v>0</v>
@@ -17373,16 +17364,16 @@
         <v>18</v>
       </c>
       <c r="O252" s="4" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P252" s="4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q252" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R252" s="4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="S252" s="5" t="inlineStr"/>
       <c r="T252" s="6" t="n"/>
@@ -17410,7 +17401,7 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E253" s="20" t="inlineStr">
+      <c r="E253" s="21" t="inlineStr">
         <is>
           <t>36082 Абатмент угловой MU LM (собств. разр.) Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17431,13 +17422,13 @@
         </is>
       </c>
       <c r="I253" s="4" t="n">
-        <v>597</v>
-      </c>
-      <c r="J253" s="21" t="n">
-        <v>44</v>
+        <v>575</v>
+      </c>
+      <c r="J253" s="22" t="n">
+        <v>46</v>
       </c>
       <c r="K253" s="4" t="n">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="L253" s="4" t="n">
         <v>1</v>
@@ -17449,16 +17440,16 @@
         <v>12</v>
       </c>
       <c r="O253" s="4" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P253" s="4" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="Q253" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R253" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="S253" s="5" t="inlineStr"/>
       <c r="T253" s="6" t="n"/>
@@ -17507,10 +17498,10 @@
         </is>
       </c>
       <c r="I254" s="15" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="J254" s="16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K254" s="4" t="n">
         <v>210</v>
@@ -17525,13 +17516,13 @@
         <v>11</v>
       </c>
       <c r="O254" s="4" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P254" s="4" t="n">
         <v>58</v>
       </c>
       <c r="Q254" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R254" s="4" t="n">
         <v>4</v>
@@ -17583,13 +17574,13 @@
         </is>
       </c>
       <c r="I255" s="11" t="n">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J255" s="12" t="n">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="K255" s="4" t="n">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="L255" s="4" t="n">
         <v>0</v>
@@ -17598,25 +17589,25 @@
         <v>3</v>
       </c>
       <c r="N255" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O255" s="4" t="n">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="P255" s="4" t="n">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="Q255" s="4" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="R255" s="4" t="n">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="S255" s="5" t="inlineStr"/>
       <c r="T255" s="6" t="n"/>
       <c r="U255" s="6" t="n"/>
       <c r="V255" s="4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
@@ -17640,7 +17631,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E256" s="20" t="inlineStr">
+      <c r="E256" s="21" t="inlineStr">
         <is>
           <t>36085 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17661,13 +17652,13 @@
         </is>
       </c>
       <c r="I256" s="4" t="n">
-        <v>245</v>
-      </c>
-      <c r="J256" s="21" t="n">
-        <v>59</v>
+        <v>232</v>
+      </c>
+      <c r="J256" s="22" t="n">
+        <v>72</v>
       </c>
       <c r="K256" s="4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L256" s="4" t="n">
         <v>0</v>
@@ -17676,26 +17667,24 @@
         <v>1</v>
       </c>
       <c r="N256" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O256" s="4" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P256" s="4" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q256" s="4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R256" s="4" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="S256" s="5" t="inlineStr"/>
       <c r="T256" s="6" t="n"/>
       <c r="U256" s="6" t="n"/>
-      <c r="V256" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V256" s="4" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
@@ -17718,7 +17707,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E257" s="20" t="inlineStr">
+      <c r="E257" s="23" t="inlineStr">
         <is>
           <t>36086 Абатмент угловой MU LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -17738,42 +17727,40 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I257" s="4" t="n">
-        <v>317</v>
-      </c>
-      <c r="J257" s="21" t="n">
-        <v>249</v>
+      <c r="I257" s="24" t="n">
+        <v>166</v>
+      </c>
+      <c r="J257" s="25" t="n">
+        <v>267</v>
       </c>
       <c r="K257" s="4" t="n">
-        <v>199</v>
+        <v>13</v>
       </c>
       <c r="L257" s="4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="M257" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N257" s="4" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="O257" s="4" t="n">
         <v>99</v>
       </c>
       <c r="P257" s="4" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="Q257" s="4" t="n">
         <v>20</v>
       </c>
       <c r="R257" s="4" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="S257" s="5" t="inlineStr"/>
       <c r="T257" s="6" t="n"/>
       <c r="U257" s="6" t="n"/>
-      <c r="V257" s="4" t="n">
-        <v>108</v>
-      </c>
+      <c r="V257" s="4" t="n"/>
     </row>
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
@@ -17817,13 +17804,13 @@
         </is>
       </c>
       <c r="I258" s="15" t="n">
-        <v>677</v>
+        <v>642</v>
       </c>
       <c r="J258" s="16" t="n">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="K258" s="4" t="n">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="L258" s="4" t="n">
         <v>0</v>
@@ -17832,7 +17819,7 @@
         <v>0</v>
       </c>
       <c r="N258" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O258" s="4" t="n">
         <v>100</v>
@@ -17844,14 +17831,12 @@
         <v>16</v>
       </c>
       <c r="R258" s="4" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="S258" s="5" t="inlineStr"/>
       <c r="T258" s="6" t="n"/>
       <c r="U258" s="6" t="n"/>
-      <c r="V258" s="4" t="n">
-        <v>10</v>
-      </c>
+      <c r="V258" s="4" t="n"/>
     </row>
     <row r="259">
       <c r="A259" s="7" t="n"/>
@@ -18147,7 +18132,7 @@
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>(отв.Dentium/Mis/Astra/Adin RS)</t>
+          <t>(отв.Dentium/Mis/MisC1/Astra/Adin RS)</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr">
@@ -18171,34 +18156,34 @@
         </is>
       </c>
       <c r="I264" s="4" t="n">
-        <v>3160</v>
+        <v>2716</v>
       </c>
       <c r="J264" s="4" t="n">
-        <v>1125</v>
+        <v>1399</v>
       </c>
       <c r="K264" s="4" t="n">
-        <v>2575</v>
+        <v>2185</v>
       </c>
       <c r="L264" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M264" s="4" t="n">
-        <v>676</v>
+        <v>806</v>
       </c>
       <c r="N264" s="4" t="n">
-        <v>179</v>
+        <v>279</v>
       </c>
       <c r="O264" s="4" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="P264" s="4" t="n">
-        <v>399</v>
+        <v>349</v>
       </c>
       <c r="Q264" s="4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R264" s="4" t="n">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="S264" s="5" t="inlineStr"/>
       <c r="T264" s="6" t="n"/>
@@ -18250,7 +18235,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E266" s="19" t="inlineStr">
+      <c r="E266" s="3" t="inlineStr">
         <is>
           <t>35998 Временный цилиндр LM (копия оригинала) Osstem Implant Multi-Unit D=4.8 H=12 (арт. MTR100) V.1</t>
         </is>
@@ -18271,38 +18256,38 @@
         </is>
       </c>
       <c r="I266" s="4" t="n">
-        <v>148</v>
+        <v>1265</v>
       </c>
       <c r="J266" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="K266" s="18" t="n">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K266" s="4" t="n">
+        <v>1125</v>
       </c>
       <c r="L266" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M266" s="18" t="n">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="M266" s="4" t="n">
+        <v>37</v>
       </c>
       <c r="N266" s="4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O266" s="4" t="n">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P266" s="4" t="n">
         <v>1</v>
       </c>
       <c r="Q266" s="4" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="R266" s="4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="S266" s="5" t="inlineStr"/>
       <c r="T266" s="6" t="n">
-        <v>1106</v>
+        <v>33</v>
       </c>
       <c r="U266" s="6" t="n"/>
       <c r="V266" s="4" t="n">
@@ -18371,40 +18356,40 @@
         </is>
       </c>
       <c r="I268" s="4" t="n">
-        <v>5400</v>
+        <v>4387</v>
       </c>
       <c r="J268" s="4" t="n">
-        <v>1187</v>
+        <v>1503</v>
       </c>
       <c r="K268" s="4" t="n">
-        <v>4908</v>
+        <v>3815</v>
       </c>
       <c r="L268" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M268" s="4" t="n">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="N268" s="4" t="n">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="O268" s="4" t="n">
-        <v>492</v>
+        <v>572</v>
       </c>
       <c r="P268" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q268" s="4" t="n">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="R268" s="4" t="n">
-        <v>411</v>
+        <v>491</v>
       </c>
       <c r="S268" s="5" t="inlineStr"/>
       <c r="T268" s="6" t="n"/>
       <c r="U268" s="6" t="n"/>
       <c r="V268" s="4" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="269">
@@ -18445,42 +18430,42 @@
         </is>
       </c>
       <c r="I269" s="4" t="n">
-        <v>4016</v>
+        <v>4367</v>
       </c>
       <c r="J269" s="4" t="n">
-        <v>728</v>
+        <v>1098</v>
       </c>
       <c r="K269" s="4" t="n">
-        <v>3534</v>
+        <v>3880</v>
       </c>
       <c r="L269" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M269" s="4" t="n">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="N269" s="4" t="n">
-        <v>299</v>
+        <v>465</v>
       </c>
       <c r="O269" s="4" t="n">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P269" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Q269" s="4" t="n">
-        <v>121</v>
+        <v>216</v>
       </c>
       <c r="R269" s="4" t="n">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="S269" s="5" t="inlineStr"/>
       <c r="T269" s="6" t="n">
-        <v>2421</v>
+        <v>99</v>
       </c>
       <c r="U269" s="6" t="n"/>
       <c r="V269" s="4" t="n">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="270">
@@ -18836,9 +18821,9 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E276" s="31" t="inlineStr">
-        <is>
-          <t>37705 Заготовка MU Astra Tech 3.5/4.0  D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
+      <c r="E276" s="3" t="inlineStr">
+        <is>
+          <t>37704 Заготовка MU Astra Tech 3.5/4.0  D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
@@ -18856,14 +18841,14 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I276" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J276" s="23" t="n">
+      <c r="I276" s="4" t="n">
+        <v>1026</v>
+      </c>
+      <c r="J276" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K276" s="4" t="n">
-        <v>0</v>
+        <v>1026</v>
       </c>
       <c r="L276" s="4" t="n">
         <v>0</v>
@@ -18886,12 +18871,10 @@
       <c r="R276" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S276" s="5" t="inlineStr">
-        <is>
-          <t>31.01-02.02</t>
-        </is>
-      </c>
-      <c r="T276" s="6" t="n"/>
+      <c r="S276" s="5" t="inlineStr"/>
+      <c r="T276" s="6" t="n">
+        <v>124</v>
+      </c>
       <c r="U276" s="6" t="n"/>
       <c r="V276" s="4" t="n"/>
     </row>
@@ -18912,9 +18895,9 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E277" s="31" t="inlineStr">
-        <is>
-          <t>37706 Заготовка MU Astra Tech 3.5/4.0  D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
+      <c r="E277" s="3" t="inlineStr">
+        <is>
+          <t>37705 Заготовка MU Astra Tech 3.5/4.0  D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
@@ -18932,14 +18915,14 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I277" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J277" s="23" t="n">
+      <c r="I277" s="4" t="n">
+        <v>255</v>
+      </c>
+      <c r="J277" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K277" s="4" t="n">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="L277" s="4" t="n">
         <v>0</v>
@@ -18962,11 +18945,7 @@
       <c r="R277" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S277" s="5" t="inlineStr">
-        <is>
-          <t>03-04.02</t>
-        </is>
-      </c>
+      <c r="S277" s="5" t="inlineStr"/>
       <c r="T277" s="6" t="n"/>
       <c r="U277" s="6" t="n"/>
       <c r="V277" s="4" t="n"/>
@@ -18988,7 +18967,7 @@
           <t>3.5/4.0</t>
         </is>
       </c>
-      <c r="E278" s="31" t="inlineStr">
+      <c r="E278" s="27" t="inlineStr">
         <is>
           <t>37707 Заготовка MU Astra Tech 3.5/4.0  D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
         </is>
@@ -19008,10 +18987,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I278" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J278" s="23" t="n">
+      <c r="I278" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" s="24" t="n">
         <v>0</v>
       </c>
       <c r="K278" s="4" t="n">
@@ -19040,7 +19019,7 @@
       </c>
       <c r="S278" s="5" t="inlineStr">
         <is>
-          <t>05-06.02</t>
+          <t>07-08.02</t>
         </is>
       </c>
       <c r="T278" s="6" t="n"/>
@@ -19400,7 +19379,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E285" s="31" t="inlineStr">
+      <c r="E285" s="27" t="inlineStr">
         <is>
           <t>37702 Заготовка MU MegaGen AnyOne, NeoBiotech 4.3 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
         </is>
@@ -19420,10 +19399,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I285" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J285" s="23" t="n">
+      <c r="I285" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" s="24" t="n">
         <v>0</v>
       </c>
       <c r="K285" s="4" t="n">
@@ -19452,7 +19431,7 @@
       </c>
       <c r="S285" s="5" t="inlineStr">
         <is>
-          <t>07-09.02</t>
+          <t>09-11.02</t>
         </is>
       </c>
       <c r="T285" s="6" t="n"/>
@@ -19804,17 +19783,17 @@
       <c r="B292" s="3" t="n"/>
       <c r="C292" s="3" t="inlineStr">
         <is>
-          <t>Nobel Replace Select</t>
+          <t>Nobel Active</t>
         </is>
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>NP</t>
+          <t>RP</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>37690 Заготовка MU Nobel Replace Select 3.5 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
+          <t>37703 Заготовка MU Nobel Active RP (4.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
@@ -19833,13 +19812,13 @@
         </is>
       </c>
       <c r="I292" s="4" t="n">
-        <v>870</v>
+        <v>1289</v>
       </c>
       <c r="J292" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K292" s="4" t="n">
-        <v>870</v>
+        <v>1289</v>
       </c>
       <c r="L292" s="4" t="n">
         <v>0</v>
@@ -19863,81 +19842,35 @@
         <v>0</v>
       </c>
       <c r="S292" s="5" t="inlineStr"/>
-      <c r="T292" s="6" t="n"/>
+      <c r="T292" s="6" t="n">
+        <v>8</v>
+      </c>
       <c r="U292" s="6" t="n"/>
       <c r="V292" s="4" t="n"/>
     </row>
     <row r="293">
-      <c r="A293" s="3" t="inlineStr">
-        <is>
-          <t>Заготовка Multi-Unit</t>
-        </is>
-      </c>
-      <c r="B293" s="3" t="n"/>
-      <c r="C293" s="3" t="inlineStr">
-        <is>
-          <t>Nobel Replace Select</t>
-        </is>
-      </c>
-      <c r="D293" s="3" t="inlineStr">
-        <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="E293" s="9" t="inlineStr">
-        <is>
-          <t>37678 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F293" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G293" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H293" s="10" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I293" s="11" t="n">
-        <v>74</v>
-      </c>
-      <c r="J293" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K293" s="4" t="n">
-        <v>74</v>
-      </c>
-      <c r="L293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R293" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S293" s="5" t="inlineStr"/>
-      <c r="T293" s="6" t="n"/>
-      <c r="U293" s="6" t="n"/>
-      <c r="V293" s="4" t="n"/>
+      <c r="A293" s="7" t="n"/>
+      <c r="B293" s="7" t="n"/>
+      <c r="C293" s="7" t="n"/>
+      <c r="D293" s="7" t="n"/>
+      <c r="E293" s="7" t="n"/>
+      <c r="F293" s="7" t="n"/>
+      <c r="G293" s="7" t="n"/>
+      <c r="H293" s="7" t="n"/>
+      <c r="I293" s="7" t="n"/>
+      <c r="J293" s="7" t="n"/>
+      <c r="K293" s="7" t="n"/>
+      <c r="L293" s="7" t="n"/>
+      <c r="M293" s="7" t="n"/>
+      <c r="N293" s="7" t="n"/>
+      <c r="O293" s="7" t="n"/>
+      <c r="P293" s="7" t="n"/>
+      <c r="Q293" s="7" t="n"/>
+      <c r="R293" s="7" t="n"/>
+      <c r="S293" s="7" t="n"/>
+      <c r="T293" s="8" t="n"/>
+      <c r="U293" s="8" t="n"/>
+      <c r="V293" s="7" t="n"/>
     </row>
     <row r="294">
       <c r="A294" s="3" t="inlineStr">
@@ -19953,12 +19886,12 @@
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
-          <t>WP</t>
-        </is>
-      </c>
-      <c r="E294" s="20" t="inlineStr">
-        <is>
-          <t>37679 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
+          <t>NP</t>
+        </is>
+      </c>
+      <c r="E294" s="3" t="inlineStr">
+        <is>
+          <t>37690 Заготовка MU Nobel Replace Select 3.5 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F294" s="3" t="inlineStr">
@@ -19977,13 +19910,13 @@
         </is>
       </c>
       <c r="I294" s="4" t="n">
-        <v>77</v>
-      </c>
-      <c r="J294" s="21" t="n">
+        <v>870</v>
+      </c>
+      <c r="J294" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K294" s="4" t="n">
-        <v>77</v>
+        <v>870</v>
       </c>
       <c r="L294" s="4" t="n">
         <v>0</v>
@@ -20028,34 +19961,34 @@
           <t>WP</t>
         </is>
       </c>
-      <c r="E295" s="20" t="inlineStr">
-        <is>
-          <t>37680 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F295" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G295" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H295" s="3" t="inlineStr">
+      <c r="E295" s="9" t="inlineStr">
+        <is>
+          <t>37678 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F295" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G295" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H295" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I295" s="4" t="n">
-        <v>75</v>
-      </c>
-      <c r="J295" s="21" t="n">
+      <c r="I295" s="11" t="n">
+        <v>74</v>
+      </c>
+      <c r="J295" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K295" s="4" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L295" s="4" t="n">
         <v>0</v>
@@ -20100,34 +20033,34 @@
           <t>WP</t>
         </is>
       </c>
-      <c r="E296" s="13" t="inlineStr">
-        <is>
-          <t>37681 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F296" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G296" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H296" s="14" t="inlineStr">
+      <c r="E296" s="21" t="inlineStr">
+        <is>
+          <t>37679 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F296" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G296" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H296" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I296" s="15" t="n">
-        <v>72</v>
-      </c>
-      <c r="J296" s="16" t="n">
+      <c r="I296" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="J296" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K296" s="4" t="n">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L296" s="4" t="n">
         <v>0</v>
@@ -20156,28 +20089,76 @@
       <c r="V296" s="4" t="n"/>
     </row>
     <row r="297">
-      <c r="A297" s="7" t="n"/>
-      <c r="B297" s="7" t="n"/>
-      <c r="C297" s="7" t="n"/>
-      <c r="D297" s="7" t="n"/>
-      <c r="E297" s="7" t="n"/>
-      <c r="F297" s="7" t="n"/>
-      <c r="G297" s="7" t="n"/>
-      <c r="H297" s="7" t="n"/>
-      <c r="I297" s="7" t="n"/>
-      <c r="J297" s="7" t="n"/>
-      <c r="K297" s="7" t="n"/>
-      <c r="L297" s="7" t="n"/>
-      <c r="M297" s="7" t="n"/>
-      <c r="N297" s="7" t="n"/>
-      <c r="O297" s="7" t="n"/>
-      <c r="P297" s="7" t="n"/>
-      <c r="Q297" s="7" t="n"/>
-      <c r="R297" s="7" t="n"/>
-      <c r="S297" s="7" t="n"/>
-      <c r="T297" s="8" t="n"/>
-      <c r="U297" s="8" t="n"/>
-      <c r="V297" s="7" t="n"/>
+      <c r="A297" s="3" t="inlineStr">
+        <is>
+          <t>Заготовка Multi-Unit</t>
+        </is>
+      </c>
+      <c r="B297" s="3" t="n"/>
+      <c r="C297" s="3" t="inlineStr">
+        <is>
+          <t>Nobel Replace Select</t>
+        </is>
+      </c>
+      <c r="D297" s="3" t="inlineStr">
+        <is>
+          <t>WP</t>
+        </is>
+      </c>
+      <c r="E297" s="21" t="inlineStr">
+        <is>
+          <t>37680 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F297" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G297" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H297" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I297" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="J297" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" s="4" t="n">
+        <v>75</v>
+      </c>
+      <c r="L297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R297" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S297" s="5" t="inlineStr"/>
+      <c r="T297" s="6" t="n"/>
+      <c r="U297" s="6" t="n"/>
+      <c r="V297" s="4" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
@@ -20188,42 +20169,42 @@
       <c r="B298" s="3" t="n"/>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>Osstem Implant</t>
+          <t>Nobel Replace Select</t>
         </is>
       </c>
       <c r="D298" s="3" t="inlineStr">
         <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="E298" s="9" t="inlineStr">
-        <is>
-          <t>37670 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F298" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G298" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H298" s="10" t="inlineStr">
+          <t>WP</t>
+        </is>
+      </c>
+      <c r="E298" s="13" t="inlineStr">
+        <is>
+          <t>37681 Заготовка MU Nobel Replace Select 5.0 D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F298" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G298" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H298" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I298" s="11" t="n">
-        <v>877</v>
-      </c>
-      <c r="J298" s="12" t="n">
+      <c r="I298" s="15" t="n">
+        <v>72</v>
+      </c>
+      <c r="J298" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K298" s="4" t="n">
-        <v>877</v>
+        <v>72</v>
       </c>
       <c r="L298" s="4" t="n">
         <v>0</v>
@@ -20252,76 +20233,28 @@
       <c r="V298" s="4" t="n"/>
     </row>
     <row r="299">
-      <c r="A299" s="3" t="inlineStr">
-        <is>
-          <t>Заготовка Multi-Unit</t>
-        </is>
-      </c>
-      <c r="B299" s="3" t="n"/>
-      <c r="C299" s="3" t="inlineStr">
-        <is>
-          <t>Osstem Implant</t>
-        </is>
-      </c>
-      <c r="D299" s="3" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="E299" s="20" t="inlineStr">
-        <is>
-          <t>37671 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F299" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G299" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H299" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I299" s="4" t="n">
-        <v>536</v>
-      </c>
-      <c r="J299" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K299" s="4" t="n">
-        <v>536</v>
-      </c>
-      <c r="L299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R299" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S299" s="5" t="inlineStr"/>
-      <c r="T299" s="6" t="n"/>
-      <c r="U299" s="6" t="n"/>
-      <c r="V299" s="4" t="n"/>
+      <c r="A299" s="7" t="n"/>
+      <c r="B299" s="7" t="n"/>
+      <c r="C299" s="7" t="n"/>
+      <c r="D299" s="7" t="n"/>
+      <c r="E299" s="7" t="n"/>
+      <c r="F299" s="7" t="n"/>
+      <c r="G299" s="7" t="n"/>
+      <c r="H299" s="7" t="n"/>
+      <c r="I299" s="7" t="n"/>
+      <c r="J299" s="7" t="n"/>
+      <c r="K299" s="7" t="n"/>
+      <c r="L299" s="7" t="n"/>
+      <c r="M299" s="7" t="n"/>
+      <c r="N299" s="7" t="n"/>
+      <c r="O299" s="7" t="n"/>
+      <c r="P299" s="7" t="n"/>
+      <c r="Q299" s="7" t="n"/>
+      <c r="R299" s="7" t="n"/>
+      <c r="S299" s="7" t="n"/>
+      <c r="T299" s="8" t="n"/>
+      <c r="U299" s="8" t="n"/>
+      <c r="V299" s="7" t="n"/>
     </row>
     <row r="300">
       <c r="A300" s="3" t="inlineStr">
@@ -20340,34 +20273,34 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E300" s="20" t="inlineStr">
-        <is>
-          <t>37672 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F300" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G300" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H300" s="3" t="inlineStr">
+      <c r="E300" s="9" t="inlineStr">
+        <is>
+          <t>37670 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F300" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G300" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H300" s="10" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I300" s="4" t="n">
-        <v>1130</v>
-      </c>
-      <c r="J300" s="21" t="n">
+      <c r="I300" s="11" t="n">
+        <v>877</v>
+      </c>
+      <c r="J300" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K300" s="4" t="n">
-        <v>1130</v>
+        <v>877</v>
       </c>
       <c r="L300" s="4" t="n">
         <v>0</v>
@@ -20412,34 +20345,34 @@
           <t>Mini</t>
         </is>
       </c>
-      <c r="E301" s="13" t="inlineStr">
-        <is>
-          <t>37673 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F301" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G301" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H301" s="14" t="inlineStr">
+      <c r="E301" s="21" t="inlineStr">
+        <is>
+          <t>37671 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F301" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G301" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H301" s="3" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I301" s="15" t="n">
-        <v>1186</v>
-      </c>
-      <c r="J301" s="16" t="n">
+      <c r="I301" s="4" t="n">
+        <v>536</v>
+      </c>
+      <c r="J301" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K301" s="4" t="n">
-        <v>1186</v>
+        <v>536</v>
       </c>
       <c r="L301" s="4" t="n">
         <v>0</v>
@@ -20481,37 +20414,37 @@
       </c>
       <c r="D302" s="3" t="inlineStr">
         <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="E302" s="9" t="inlineStr">
-        <is>
-          <t>37668 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F302" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G302" s="10" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H302" s="10" t="inlineStr">
-        <is>
-          <t>Версяи 1</t>
-        </is>
-      </c>
-      <c r="I302" s="11" t="n">
-        <v>2123</v>
-      </c>
-      <c r="J302" s="12" t="n">
+          <t>Mini</t>
+        </is>
+      </c>
+      <c r="E302" s="21" t="inlineStr">
+        <is>
+          <t>37672 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F302" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G302" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H302" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I302" s="4" t="n">
+        <v>1130</v>
+      </c>
+      <c r="J302" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K302" s="4" t="n">
-        <v>2123</v>
+        <v>1130</v>
       </c>
       <c r="L302" s="4" t="n">
         <v>0</v>
@@ -20553,37 +20486,37 @@
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
-          <t>Regular</t>
-        </is>
-      </c>
-      <c r="E303" s="20" t="inlineStr">
-        <is>
-          <t>37669 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F303" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G303" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H303" s="3" t="inlineStr">
+          <t>Mini</t>
+        </is>
+      </c>
+      <c r="E303" s="13" t="inlineStr">
+        <is>
+          <t>37673 Заготовка MU Osstem Implant Mini (3.5) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F303" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G303" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H303" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I303" s="4" t="n">
-        <v>624</v>
-      </c>
-      <c r="J303" s="21" t="n">
+      <c r="I303" s="15" t="n">
+        <v>1186</v>
+      </c>
+      <c r="J303" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K303" s="4" t="n">
-        <v>624</v>
+        <v>1186</v>
       </c>
       <c r="L303" s="4" t="n">
         <v>0</v>
@@ -20628,34 +20561,34 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E304" s="13" t="inlineStr">
-        <is>
-          <t>37667 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F304" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G304" s="14" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H304" s="14" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I304" s="15" t="n">
-        <v>1149</v>
-      </c>
-      <c r="J304" s="16" t="n">
+      <c r="E304" s="9" t="inlineStr">
+        <is>
+          <t>37668 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F304" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G304" s="10" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H304" s="10" t="inlineStr">
+        <is>
+          <t>Версяи 1</t>
+        </is>
+      </c>
+      <c r="I304" s="11" t="n">
+        <v>2123</v>
+      </c>
+      <c r="J304" s="12" t="n">
         <v>0</v>
       </c>
       <c r="K304" s="4" t="n">
-        <v>1149</v>
+        <v>2123</v>
       </c>
       <c r="L304" s="4" t="n">
         <v>0</v>
@@ -20684,28 +20617,76 @@
       <c r="V304" s="4" t="n"/>
     </row>
     <row r="305">
-      <c r="A305" s="7" t="n"/>
-      <c r="B305" s="7" t="n"/>
-      <c r="C305" s="7" t="n"/>
-      <c r="D305" s="7" t="n"/>
-      <c r="E305" s="7" t="n"/>
-      <c r="F305" s="7" t="n"/>
-      <c r="G305" s="7" t="n"/>
-      <c r="H305" s="7" t="n"/>
-      <c r="I305" s="7" t="n"/>
-      <c r="J305" s="7" t="n"/>
-      <c r="K305" s="7" t="n"/>
-      <c r="L305" s="7" t="n"/>
-      <c r="M305" s="7" t="n"/>
-      <c r="N305" s="7" t="n"/>
-      <c r="O305" s="7" t="n"/>
-      <c r="P305" s="7" t="n"/>
-      <c r="Q305" s="7" t="n"/>
-      <c r="R305" s="7" t="n"/>
-      <c r="S305" s="7" t="n"/>
-      <c r="T305" s="8" t="n"/>
-      <c r="U305" s="8" t="n"/>
-      <c r="V305" s="7" t="n"/>
+      <c r="A305" s="3" t="inlineStr">
+        <is>
+          <t>Заготовка Multi-Unit</t>
+        </is>
+      </c>
+      <c r="B305" s="3" t="n"/>
+      <c r="C305" s="3" t="inlineStr">
+        <is>
+          <t>Osstem Implant</t>
+        </is>
+      </c>
+      <c r="D305" s="3" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E305" s="21" t="inlineStr">
+        <is>
+          <t>37669 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F305" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G305" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H305" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I305" s="4" t="n">
+        <v>624</v>
+      </c>
+      <c r="J305" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" s="4" t="n">
+        <v>624</v>
+      </c>
+      <c r="L305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R305" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S305" s="5" t="inlineStr"/>
+      <c r="T305" s="6" t="n"/>
+      <c r="U305" s="6" t="n"/>
+      <c r="V305" s="4" t="n"/>
     </row>
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
@@ -20716,17 +20697,17 @@
       <c r="B306" s="3" t="n"/>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>Straumann Bone Level</t>
+          <t>Osstem Implant</t>
         </is>
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="E306" s="31" t="inlineStr">
-        <is>
-          <t>37715 Заготовка MU Straumann Bone Level NC (3.3)  D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E306" s="21" t="inlineStr">
+        <is>
+          <t>37666 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
@@ -20744,14 +20725,14 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I306" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" s="23" t="n">
+      <c r="I306" s="4" t="n">
+        <v>1769</v>
+      </c>
+      <c r="J306" s="22" t="n">
         <v>0</v>
       </c>
       <c r="K306" s="4" t="n">
-        <v>0</v>
+        <v>1769</v>
       </c>
       <c r="L306" s="4" t="n">
         <v>0</v>
@@ -20774,12 +20755,10 @@
       <c r="R306" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S306" s="5" t="inlineStr">
-        <is>
-          <t>31.01-01.02</t>
-        </is>
-      </c>
-      <c r="T306" s="6" t="n"/>
+      <c r="S306" s="5" t="inlineStr"/>
+      <c r="T306" s="6" t="n">
+        <v>54</v>
+      </c>
       <c r="U306" s="6" t="n"/>
       <c r="V306" s="4" t="n"/>
     </row>
@@ -20792,42 +20771,42 @@
       <c r="B307" s="3" t="n"/>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>Straumann Bone Level</t>
+          <t>Osstem Implant</t>
         </is>
       </c>
       <c r="D307" s="3" t="inlineStr">
         <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="E307" s="31" t="inlineStr">
-        <is>
-          <t>37716 Заготовка MU Straumann Bone Level NC (3.3)  D=4.8 G/H=3.5 Угол=17гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F307" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G307" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H307" s="3" t="inlineStr">
+          <t>Regular</t>
+        </is>
+      </c>
+      <c r="E307" s="13" t="inlineStr">
+        <is>
+          <t>37667 Заготовка MU Osstem Implant Regular (4.0/4.5/5.0) D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F307" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G307" s="14" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H307" s="14" t="inlineStr">
         <is>
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I307" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" s="23" t="n">
+      <c r="I307" s="15" t="n">
+        <v>1149</v>
+      </c>
+      <c r="J307" s="16" t="n">
         <v>0</v>
       </c>
       <c r="K307" s="4" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="L307" s="4" t="n">
         <v>0</v>
@@ -20850,90 +20829,34 @@
       <c r="R307" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S307" s="5" t="inlineStr">
-        <is>
-          <t>02-04.02</t>
-        </is>
-      </c>
+      <c r="S307" s="5" t="inlineStr"/>
       <c r="T307" s="6" t="n"/>
       <c r="U307" s="6" t="n"/>
       <c r="V307" s="4" t="n"/>
     </row>
     <row r="308">
-      <c r="A308" s="3" t="inlineStr">
-        <is>
-          <t>Заготовка Multi-Unit</t>
-        </is>
-      </c>
-      <c r="B308" s="3" t="n"/>
-      <c r="C308" s="3" t="inlineStr">
-        <is>
-          <t>Straumann Bone Level</t>
-        </is>
-      </c>
-      <c r="D308" s="3" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
-      <c r="E308" s="31" t="inlineStr">
-        <is>
-          <t>37717 Заготовка MU Straumann Bone Level NC (3.3) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
-        </is>
-      </c>
-      <c r="F308" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="G308" s="3" t="inlineStr">
-        <is>
-          <t>Нет</t>
-        </is>
-      </c>
-      <c r="H308" s="3" t="inlineStr">
-        <is>
-          <t>Версия 1</t>
-        </is>
-      </c>
-      <c r="I308" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R308" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S308" s="5" t="inlineStr">
-        <is>
-          <t>05-06.02</t>
-        </is>
-      </c>
-      <c r="T308" s="6" t="n"/>
-      <c r="U308" s="6" t="n"/>
-      <c r="V308" s="4" t="n"/>
+      <c r="A308" s="7" t="n"/>
+      <c r="B308" s="7" t="n"/>
+      <c r="C308" s="7" t="n"/>
+      <c r="D308" s="7" t="n"/>
+      <c r="E308" s="7" t="n"/>
+      <c r="F308" s="7" t="n"/>
+      <c r="G308" s="7" t="n"/>
+      <c r="H308" s="7" t="n"/>
+      <c r="I308" s="7" t="n"/>
+      <c r="J308" s="7" t="n"/>
+      <c r="K308" s="7" t="n"/>
+      <c r="L308" s="7" t="n"/>
+      <c r="M308" s="7" t="n"/>
+      <c r="N308" s="7" t="n"/>
+      <c r="O308" s="7" t="n"/>
+      <c r="P308" s="7" t="n"/>
+      <c r="Q308" s="7" t="n"/>
+      <c r="R308" s="7" t="n"/>
+      <c r="S308" s="7" t="n"/>
+      <c r="T308" s="8" t="n"/>
+      <c r="U308" s="8" t="n"/>
+      <c r="V308" s="7" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="3" t="inlineStr">
@@ -20952,9 +20875,9 @@
           <t>NC</t>
         </is>
       </c>
-      <c r="E309" s="31" t="inlineStr">
-        <is>
-          <t>37718 Заготовка MU Straumann Bone Level NC (3.3)  D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
+      <c r="E309" s="3" t="inlineStr">
+        <is>
+          <t>37715 Заготовка MU Straumann Bone Level NC (3.3)  D=4.8 G/H=2.5 Угол=17гр. с позиционером V.1</t>
         </is>
       </c>
       <c r="F309" s="3" t="inlineStr">
@@ -20972,14 +20895,14 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I309" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" s="23" t="n">
+      <c r="I309" s="4" t="n">
+        <v>169</v>
+      </c>
+      <c r="J309" s="4" t="n">
         <v>0</v>
       </c>
       <c r="K309" s="4" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="L309" s="4" t="n">
         <v>0</v>
@@ -21002,79 +20925,227 @@
       <c r="R309" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S309" s="5" t="inlineStr">
-        <is>
-          <t>07-08.02</t>
-        </is>
-      </c>
+      <c r="S309" s="5" t="inlineStr"/>
       <c r="T309" s="6" t="n"/>
       <c r="U309" s="6" t="n"/>
       <c r="V309" s="4" t="n"/>
     </row>
     <row r="310">
-      <c r="A310" s="2" t="n"/>
-      <c r="B310" s="2" t="n"/>
-      <c r="C310" s="2" t="n"/>
-      <c r="D310" s="2" t="n"/>
-      <c r="E310" s="2" t="inlineStr">
+      <c r="A310" s="3" t="inlineStr">
+        <is>
+          <t>Заготовка Multi-Unit</t>
+        </is>
+      </c>
+      <c r="B310" s="3" t="n"/>
+      <c r="C310" s="3" t="inlineStr">
+        <is>
+          <t>Straumann Bone Level</t>
+        </is>
+      </c>
+      <c r="D310" s="3" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="E310" s="27" t="inlineStr">
+        <is>
+          <t>37717 Заготовка MU Straumann Bone Level NC (3.3) D=4.8 G/H=3.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F310" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G310" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H310" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I310" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R310" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S310" s="5" t="inlineStr">
+        <is>
+          <t>07.02</t>
+        </is>
+      </c>
+      <c r="T310" s="6" t="n"/>
+      <c r="U310" s="6" t="n"/>
+      <c r="V310" s="4" t="n"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="inlineStr">
+        <is>
+          <t>Заготовка Multi-Unit</t>
+        </is>
+      </c>
+      <c r="B311" s="3" t="n"/>
+      <c r="C311" s="3" t="inlineStr">
+        <is>
+          <t>Straumann Bone Level</t>
+        </is>
+      </c>
+      <c r="D311" s="3" t="inlineStr">
+        <is>
+          <t>NC</t>
+        </is>
+      </c>
+      <c r="E311" s="27" t="inlineStr">
+        <is>
+          <t>37718 Заготовка MU Straumann Bone Level NC (3.3)  D=4.8 G/H=4.5 Угол=30гр. с позиционером V.1</t>
+        </is>
+      </c>
+      <c r="F311" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="G311" s="3" t="inlineStr">
+        <is>
+          <t>Нет</t>
+        </is>
+      </c>
+      <c r="H311" s="3" t="inlineStr">
+        <is>
+          <t>Версия 1</t>
+        </is>
+      </c>
+      <c r="I311" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J311" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R311" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S311" s="5" t="inlineStr">
+        <is>
+          <t>08-10.02</t>
+        </is>
+      </c>
+      <c r="T311" s="6" t="n"/>
+      <c r="U311" s="6" t="n"/>
+      <c r="V311" s="4" t="n"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="2" t="n"/>
+      <c r="B312" s="2" t="n"/>
+      <c r="C312" s="2" t="n"/>
+      <c r="D312" s="2" t="n"/>
+      <c r="E312" s="2" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="F310" s="2" t="n"/>
-      <c r="G310" s="2" t="n"/>
-      <c r="H310" s="2" t="n"/>
-      <c r="I310" s="32">
-        <f>SUM(I7:I309)</f>
+      <c r="F312" s="2" t="n"/>
+      <c r="G312" s="2" t="n"/>
+      <c r="H312" s="2" t="n"/>
+      <c r="I312" s="28">
+        <f>SUM(I7:I311)</f>
         <v/>
       </c>
-      <c r="J310" s="32">
-        <f>SUM(J7:J309)</f>
+      <c r="J312" s="28">
+        <f>SUM(J7:J311)</f>
         <v/>
       </c>
-      <c r="K310" s="32">
-        <f>SUM(K7:K309)</f>
+      <c r="K312" s="28">
+        <f>SUM(K7:K311)</f>
         <v/>
       </c>
-      <c r="L310" s="32">
-        <f>SUM(L7:L309)</f>
+      <c r="L312" s="28">
+        <f>SUM(L7:L311)</f>
         <v/>
       </c>
-      <c r="M310" s="32">
-        <f>SUM(M7:M309)</f>
+      <c r="M312" s="28">
+        <f>SUM(M7:M311)</f>
         <v/>
       </c>
-      <c r="N310" s="32">
-        <f>SUM(N7:N309)</f>
+      <c r="N312" s="28">
+        <f>SUM(N7:N311)</f>
         <v/>
       </c>
-      <c r="O310" s="32">
-        <f>SUM(O7:O309)</f>
+      <c r="O312" s="28">
+        <f>SUM(O7:O311)</f>
         <v/>
       </c>
-      <c r="P310" s="32">
-        <f>SUM(P7:P309)</f>
+      <c r="P312" s="28">
+        <f>SUM(P7:P311)</f>
         <v/>
       </c>
-      <c r="Q310" s="32">
-        <f>SUM(Q7:Q309)</f>
+      <c r="Q312" s="28">
+        <f>SUM(Q7:Q311)</f>
         <v/>
       </c>
-      <c r="R310" s="32">
-        <f>SUM(R7:R309)</f>
+      <c r="R312" s="28">
+        <f>SUM(R7:R311)</f>
         <v/>
       </c>
-      <c r="S310" s="2" t="n"/>
-      <c r="T310" s="32">
-        <f>SUM(T7:T309)</f>
+      <c r="S312" s="2" t="n"/>
+      <c r="T312" s="28">
+        <f>SUM(T7:T311)</f>
         <v/>
       </c>
-      <c r="U310" s="32">
-        <f>SUM(U7:U309)</f>
+      <c r="U312" s="28">
+        <f>SUM(U7:U311)</f>
         <v/>
       </c>
-      <c r="V310" s="32">
-        <f>SUM(V7:V309)</f>
+      <c r="V312" s="28">
+        <f>SUM(V7:V311)</f>
         <v/>
       </c>
     </row>
@@ -21386,10 +21457,10 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>0</v>
@@ -21407,13 +21478,13 @@
         <v>0</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S7" s="5" t="inlineStr"/>
       <c r="T7" s="6" t="n"/>
@@ -21462,10 +21533,10 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>0</v>
@@ -21483,13 +21554,13 @@
         <v>0</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S8" s="5" t="inlineStr"/>
       <c r="T8" s="6" t="n"/>
@@ -21641,7 +21712,7 @@
           <t>--</t>
         </is>
       </c>
-      <c r="E12" s="31" t="inlineStr">
+      <c r="E12" s="27" t="inlineStr">
         <is>
           <t>35202 Абатмент приливаемый LM (собств. разр.) Implantium D=4.5 G/H=1.25 с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -21661,10 +21732,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I12" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" s="23" t="n">
+      <c r="I12" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" s="24" t="n">
         <v>2</v>
       </c>
       <c r="K12" s="4" t="n">
@@ -21738,34 +21809,34 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>789</v>
+        <v>637</v>
       </c>
       <c r="J13" s="4" t="n">
-        <v>200</v>
+        <v>352</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>466</v>
+        <v>327</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="n">
-        <v>161</v>
+        <v>300</v>
       </c>
       <c r="O13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="Q13" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="S13" s="5" t="inlineStr"/>
       <c r="T13" s="6" t="n"/>
@@ -21838,7 +21909,7 @@
         </is>
       </c>
       <c r="I15" s="4" t="n">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J15" s="4" t="n">
         <v>35</v>
@@ -21847,7 +21918,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="4" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>0</v>
@@ -22014,10 +22085,10 @@
         </is>
       </c>
       <c r="I18" s="4" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>0</v>
@@ -22035,13 +22106,13 @@
         <v>15</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>5</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S18" s="5" t="inlineStr"/>
       <c r="T18" s="6" t="n"/>
@@ -22092,10 +22163,10 @@
         </is>
       </c>
       <c r="I19" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>0</v>
@@ -22113,13 +22184,13 @@
         <v>0</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S19" s="5" t="inlineStr"/>
       <c r="T19" s="6" t="n"/>
@@ -22247,7 +22318,7 @@
           <t>SP</t>
         </is>
       </c>
-      <c r="E22" s="25" t="inlineStr">
+      <c r="E22" s="29" t="inlineStr">
         <is>
           <t>35208 Абатмент приливаемый LM (собств. разр.) Mis SP (3.75/4.2) D=4.5 G/H=0.6 с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -22267,11 +22338,11 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I22" s="26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" s="27" t="n">
-        <v>19</v>
+      <c r="I22" s="30" t="n">
+        <v>11</v>
+      </c>
+      <c r="J22" s="31" t="n">
+        <v>20</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>0</v>
@@ -22289,13 +22360,13 @@
         <v>0</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R22" s="4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S22" s="5" t="inlineStr"/>
       <c r="T22" s="6" t="n"/>
@@ -22344,22 +22415,22 @@
         </is>
       </c>
       <c r="I23" s="15" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J23" s="16" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O23" s="4" t="n">
         <v>0</v>
@@ -22599,7 +22670,7 @@
           <t>RP</t>
         </is>
       </c>
-      <c r="E28" s="31" t="inlineStr">
+      <c r="E28" s="27" t="inlineStr">
         <is>
           <t>35207 Абатмент приливаемый LM (собств. разр.) Nobel Active RP (4.5), Nobel Conical Connection RP (4.3) D=4.5 G/H=1.35 с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -22619,10 +22690,10 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I28" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" s="23" t="n">
+      <c r="I28" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="24" t="n">
         <v>1</v>
       </c>
       <c r="K28" s="4" t="n">
@@ -22820,10 +22891,10 @@
         </is>
       </c>
       <c r="I32" s="11" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="J32" s="12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>0</v>
@@ -22841,13 +22912,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="4" t="n">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="Q32" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S32" s="5" t="inlineStr"/>
       <c r="T32" s="6" t="n"/>
@@ -22896,34 +22967,34 @@
         </is>
       </c>
       <c r="I33" s="15" t="n">
-        <v>484</v>
+        <v>408</v>
       </c>
       <c r="J33" s="16" t="n">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L33" s="4" t="n">
-        <v>329</v>
+        <v>268</v>
       </c>
       <c r="M33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="4" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="O33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P33" s="4" t="n">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="Q33" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="S33" s="5" t="inlineStr"/>
       <c r="T33" s="6" t="n"/>
@@ -22951,7 +23022,7 @@
           <t>Regular</t>
         </is>
       </c>
-      <c r="E34" s="9" t="inlineStr">
+      <c r="E34" s="29" t="inlineStr">
         <is>
           <t>35200 Абатмент приливаемый LM (собств. разр.) Osstem Implant Regular (4.0/4.5/5.0) D=4.5 G/H=1.5 с позиционером V.1 / БЕЗ ВИНТА</t>
         </is>
@@ -22971,11 +23042,11 @@
           <t>Версия 1</t>
         </is>
       </c>
-      <c r="I34" s="11" t="n">
-        <v>124</v>
-      </c>
-      <c r="J34" s="12" t="n">
-        <v>58</v>
+      <c r="I34" s="30" t="n">
+        <v>73</v>
+      </c>
+      <c r="J34" s="31" t="n">
+        <v>109</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>0</v>
@@ -22993,13 +23064,13 @@
         <v>0</v>
       </c>
       <c r="P34" s="4" t="n">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="Q34" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="S34" s="5" t="inlineStr"/>
       <c r="T34" s="6" t="n"/>
@@ -23048,34 +23119,34 @@
         </is>
       </c>
       <c r="I35" s="15" t="n">
-        <v>670</v>
+        <v>518</v>
       </c>
       <c r="J35" s="16" t="n">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="4" t="n">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N35" s="4" t="n">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="O35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="4" t="n">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="Q35" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="S35" s="5" t="inlineStr"/>
       <c r="T35" s="6" t="n"/>
@@ -23324,22 +23395,22 @@
         </is>
       </c>
       <c r="I40" s="4" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J40" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L40" s="4" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M40" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N40" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O40" s="4" t="n">
         <v>0</v>
@@ -23424,34 +23495,34 @@
         </is>
       </c>
       <c r="I42" s="4" t="n">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="N42" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="Q42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" s="5" t="inlineStr"/>
       <c r="T42" s="6" t="n"/>
@@ -23571,56 +23642,56 @@
       <c r="F45" s="2" t="n"/>
       <c r="G45" s="2" t="n"/>
       <c r="H45" s="2" t="n"/>
-      <c r="I45" s="32">
+      <c r="I45" s="28">
         <f>SUM(I7:I44)</f>
         <v/>
       </c>
-      <c r="J45" s="32">
+      <c r="J45" s="28">
         <f>SUM(J7:J44)</f>
         <v/>
       </c>
-      <c r="K45" s="32">
+      <c r="K45" s="28">
         <f>SUM(K7:K44)</f>
         <v/>
       </c>
-      <c r="L45" s="32">
+      <c r="L45" s="28">
         <f>SUM(L7:L44)</f>
         <v/>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="28">
         <f>SUM(M7:M44)</f>
         <v/>
       </c>
-      <c r="N45" s="32">
+      <c r="N45" s="28">
         <f>SUM(N7:N44)</f>
         <v/>
       </c>
-      <c r="O45" s="32">
+      <c r="O45" s="28">
         <f>SUM(O7:O44)</f>
         <v/>
       </c>
-      <c r="P45" s="32">
+      <c r="P45" s="28">
         <f>SUM(P7:P44)</f>
         <v/>
       </c>
-      <c r="Q45" s="32">
+      <c r="Q45" s="28">
         <f>SUM(Q7:Q44)</f>
         <v/>
       </c>
-      <c r="R45" s="32">
+      <c r="R45" s="28">
         <f>SUM(R7:R44)</f>
         <v/>
       </c>
       <c r="S45" s="2" t="n"/>
-      <c r="T45" s="32">
+      <c r="T45" s="28">
         <f>SUM(T7:T44)</f>
         <v/>
       </c>
-      <c r="U45" s="32">
+      <c r="U45" s="28">
         <f>SUM(U7:U44)</f>
         <v/>
       </c>
-      <c r="V45" s="32">
+      <c r="V45" s="28">
         <f>SUM(V7:V44)</f>
         <v/>
       </c>
